--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始装备，装备ID字符串以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -878,15 +874,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始技能，技能ID字符串以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingzhong</t>
+  </si>
+  <si>
+    <t>bingzhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将领初始掌握的兵种属性，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能，技能ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始装备，装备ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵装备一柄长刀和一面盾牌，攻击力弱，防御力高，对枪兵作战有利，可以直接攻城的兵种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵装备厚甲和一支长枪或长戟，攻击力高，防御力弱，对骑兵作战有利，可以直接攻城的兵种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵装备战马和马刀，高攻击力移动力，弱防御力，对刀兵弓兵作战有利，但是攻城力较弱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵装备大弓或强弩，可以远程攻击，但攻击力防御力弱，可以间接攻城。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,62 +1295,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L97" activeCellId="1" sqref="L97 L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="11" width="92.75" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="92.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1316,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -1328,21 +1376,24 @@
         <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1351,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -1363,21 +1414,24 @@
         <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1386,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -1398,21 +1452,24 @@
         <v>100</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1421,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -1433,21 +1490,24 @@
         <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1456,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1468,21 +1528,24 @@
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1491,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -1503,21 +1566,24 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1526,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -1538,21 +1604,24 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1561,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -1573,21 +1642,24 @@
         <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2002</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1596,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -1608,21 +1680,24 @@
         <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2003</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1631,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -1643,21 +1718,24 @@
         <v>100</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1666,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -1678,56 +1756,62 @@
         <v>100</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2005</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2006</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1736,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1748,21 +1832,24 @@
         <v>100</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2007</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1771,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -1783,21 +1870,24 @@
         <v>100</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1806,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1818,196 +1908,214 @@
         <v>100</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3002</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-      <c r="F17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3003</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1">
-        <v>100</v>
-      </c>
-      <c r="G18" s="1">
-        <v>100</v>
-      </c>
-      <c r="H18" s="1">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3004</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3005</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1">
-        <v>100</v>
-      </c>
-      <c r="G20" s="1">
-        <v>100</v>
-      </c>
-      <c r="H20" s="1">
-        <v>100</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3006</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1">
-        <v>100</v>
-      </c>
-      <c r="G21" s="1">
-        <v>100</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3007</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2016,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -2028,21 +2136,24 @@
         <v>100</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>4001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2051,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -2063,196 +2174,214 @@
         <v>100</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>4002</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>100</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4003</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1">
-        <v>100</v>
-      </c>
-      <c r="G25" s="1">
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
-        <v>100</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>4004</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>100</v>
-      </c>
-      <c r="F26" s="1">
-        <v>100</v>
-      </c>
-      <c r="G26" s="1">
-        <v>100</v>
-      </c>
-      <c r="H26" s="1">
-        <v>100</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>4005</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1">
-        <v>100</v>
-      </c>
-      <c r="G27" s="1">
-        <v>100</v>
-      </c>
-      <c r="H27" s="1">
-        <v>100</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>4006</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>100</v>
-      </c>
-      <c r="F28" s="1">
-        <v>100</v>
-      </c>
-      <c r="G28" s="1">
-        <v>100</v>
-      </c>
-      <c r="H28" s="1">
-        <v>100</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>4007</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2261,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -2273,21 +2402,24 @@
         <v>100</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>5001</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2296,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -2308,56 +2440,62 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>5002</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1">
-        <v>100</v>
-      </c>
-      <c r="G31" s="1">
-        <v>100</v>
-      </c>
-      <c r="H31" s="1">
-        <v>100</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>5003</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2366,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -2378,126 +2516,138 @@
         <v>100</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>5004</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1">
-        <v>100</v>
-      </c>
-      <c r="G33" s="1">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1">
-        <v>100</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>5005</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
-      </c>
-      <c r="F34" s="1">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1">
-        <v>100</v>
-      </c>
-      <c r="H34" s="1">
-        <v>100</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>5006</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>100</v>
+      </c>
+      <c r="H35" s="1">
+        <v>100</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>100</v>
-      </c>
-      <c r="F35" s="1">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
-        <v>100</v>
-      </c>
-      <c r="H35" s="1">
-        <v>100</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>5007</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2506,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F36" s="1">
         <v>100</v>
@@ -2518,56 +2668,62 @@
         <v>100</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>8001</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>9001</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
@@ -2576,7 +2732,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F38" s="1">
         <v>100</v>
@@ -2588,21 +2744,24 @@
         <v>100</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>9002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -2611,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F39" s="1">
         <v>100</v>
@@ -2623,21 +2782,24 @@
         <v>100</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>9003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -2646,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
@@ -2658,21 +2820,24 @@
         <v>100</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>9004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2681,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F41" s="1">
         <v>100</v>
@@ -2693,56 +2858,62 @@
         <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>9005</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+      <c r="I42" s="1">
+        <v>100</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1">
-        <v>100</v>
-      </c>
-      <c r="G42" s="1">
-        <v>100</v>
-      </c>
-      <c r="H42" s="1">
-        <v>100</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>9006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2751,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
@@ -2763,56 +2934,62 @@
         <v>100</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>9007</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>100</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>100</v>
-      </c>
-      <c r="F44" s="1">
-        <v>100</v>
-      </c>
-      <c r="G44" s="1">
-        <v>100</v>
-      </c>
-      <c r="H44" s="1">
-        <v>100</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>9008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2821,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F45" s="1">
         <v>100</v>
@@ -2833,126 +3010,138 @@
         <v>100</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>9009</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1">
+        <v>100</v>
+      </c>
+      <c r="I46" s="1">
+        <v>100</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>100</v>
-      </c>
-      <c r="F46" s="1">
-        <v>100</v>
-      </c>
-      <c r="G46" s="1">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1">
-        <v>100</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>9010</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1">
-        <v>100</v>
-      </c>
-      <c r="G47" s="1">
-        <v>100</v>
-      </c>
-      <c r="H47" s="1">
-        <v>100</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>9011</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1">
+        <v>100</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>100</v>
-      </c>
-      <c r="F48" s="1">
-        <v>100</v>
-      </c>
-      <c r="G48" s="1">
-        <v>100</v>
-      </c>
-      <c r="H48" s="1">
-        <v>100</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>9012</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2961,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F49" s="1">
         <v>100</v>
@@ -2973,91 +3162,100 @@
         <v>100</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>9013</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1">
+        <v>100</v>
+      </c>
+      <c r="H50" s="1">
+        <v>100</v>
+      </c>
+      <c r="I50" s="1">
+        <v>100</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>100</v>
-      </c>
-      <c r="F50" s="1">
-        <v>100</v>
-      </c>
-      <c r="G50" s="1">
-        <v>100</v>
-      </c>
-      <c r="H50" s="1">
-        <v>100</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>9014</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1">
+        <v>100</v>
+      </c>
+      <c r="H51" s="1">
+        <v>100</v>
+      </c>
+      <c r="I51" s="1">
+        <v>100</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>100</v>
-      </c>
-      <c r="F51" s="1">
-        <v>100</v>
-      </c>
-      <c r="G51" s="1">
-        <v>100</v>
-      </c>
-      <c r="H51" s="1">
-        <v>100</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>9015</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3066,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F52" s="1">
         <v>100</v>
@@ -3078,21 +3276,24 @@
         <v>100</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>9016</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3101,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F53" s="1">
         <v>100</v>
@@ -3113,301 +3314,328 @@
         <v>100</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>9017</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F54" s="1">
+        <v>100</v>
+      </c>
+      <c r="G54" s="1">
+        <v>100</v>
+      </c>
+      <c r="H54" s="1">
+        <v>100</v>
+      </c>
+      <c r="I54" s="1">
+        <v>100</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>100</v>
-      </c>
-      <c r="F54" s="1">
-        <v>100</v>
-      </c>
-      <c r="G54" s="1">
-        <v>100</v>
-      </c>
-      <c r="H54" s="1">
-        <v>100</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>9018</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F55" s="1">
+        <v>100</v>
+      </c>
+      <c r="G55" s="1">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1">
+        <v>100</v>
+      </c>
+      <c r="I55" s="1">
+        <v>100</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>100</v>
-      </c>
-      <c r="F55" s="1">
-        <v>100</v>
-      </c>
-      <c r="G55" s="1">
-        <v>100</v>
-      </c>
-      <c r="H55" s="1">
-        <v>100</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>9019</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F56" s="1">
+        <v>100</v>
+      </c>
+      <c r="G56" s="1">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1">
+        <v>100</v>
+      </c>
+      <c r="I56" s="1">
+        <v>100</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1">
-        <v>100</v>
-      </c>
-      <c r="G56" s="1">
-        <v>100</v>
-      </c>
-      <c r="H56" s="1">
-        <v>100</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>9020</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F57" s="1">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1">
+        <v>100</v>
+      </c>
+      <c r="H57" s="1">
+        <v>100</v>
+      </c>
+      <c r="I57" s="1">
+        <v>100</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1">
-        <v>100</v>
-      </c>
-      <c r="F57" s="1">
-        <v>100</v>
-      </c>
-      <c r="G57" s="1">
-        <v>100</v>
-      </c>
-      <c r="H57" s="1">
-        <v>100</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>9021</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F58" s="1">
+        <v>100</v>
+      </c>
+      <c r="G58" s="1">
+        <v>100</v>
+      </c>
+      <c r="H58" s="1">
+        <v>100</v>
+      </c>
+      <c r="I58" s="1">
+        <v>100</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>100</v>
-      </c>
-      <c r="F58" s="1">
-        <v>100</v>
-      </c>
-      <c r="G58" s="1">
-        <v>100</v>
-      </c>
-      <c r="H58" s="1">
-        <v>100</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>9022</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F59" s="1">
+        <v>100</v>
+      </c>
+      <c r="G59" s="1">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1">
+        <v>100</v>
+      </c>
+      <c r="I59" s="1">
+        <v>100</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>100</v>
-      </c>
-      <c r="F59" s="1">
-        <v>100</v>
-      </c>
-      <c r="G59" s="1">
-        <v>100</v>
-      </c>
-      <c r="H59" s="1">
-        <v>100</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>9023</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F60" s="1">
+        <v>100</v>
+      </c>
+      <c r="G60" s="1">
+        <v>100</v>
+      </c>
+      <c r="H60" s="1">
+        <v>100</v>
+      </c>
+      <c r="I60" s="1">
+        <v>100</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>100</v>
-      </c>
-      <c r="F60" s="1">
-        <v>100</v>
-      </c>
-      <c r="G60" s="1">
-        <v>100</v>
-      </c>
-      <c r="H60" s="1">
-        <v>100</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>9024</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F61" s="1">
+        <v>100</v>
+      </c>
+      <c r="G61" s="1">
+        <v>100</v>
+      </c>
+      <c r="H61" s="1">
+        <v>100</v>
+      </c>
+      <c r="I61" s="1">
+        <v>100</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>100</v>
-      </c>
-      <c r="F61" s="1">
-        <v>100</v>
-      </c>
-      <c r="G61" s="1">
-        <v>100</v>
-      </c>
-      <c r="H61" s="1">
-        <v>100</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>9025</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3416,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F62" s="1">
         <v>100</v>
@@ -3428,91 +3656,100 @@
         <v>100</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>9026</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F63" s="1">
+        <v>100</v>
+      </c>
+      <c r="G63" s="1">
+        <v>100</v>
+      </c>
+      <c r="H63" s="1">
+        <v>100</v>
+      </c>
+      <c r="I63" s="1">
+        <v>100</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>100</v>
-      </c>
-      <c r="F63" s="1">
-        <v>100</v>
-      </c>
-      <c r="G63" s="1">
-        <v>100</v>
-      </c>
-      <c r="H63" s="1">
-        <v>100</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>9027</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F64" s="1">
+        <v>100</v>
+      </c>
+      <c r="G64" s="1">
+        <v>100</v>
+      </c>
+      <c r="H64" s="1">
+        <v>100</v>
+      </c>
+      <c r="I64" s="1">
+        <v>100</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>100</v>
-      </c>
-      <c r="F64" s="1">
-        <v>100</v>
-      </c>
-      <c r="G64" s="1">
-        <v>100</v>
-      </c>
-      <c r="H64" s="1">
-        <v>100</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>9028</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3521,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F65" s="1">
         <v>100</v>
@@ -3533,21 +3770,24 @@
         <v>100</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>9029</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3556,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>100</v>
+        <v>10001</v>
       </c>
       <c r="F66" s="1">
         <v>100</v>
@@ -3568,161 +3808,176 @@
         <v>100</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>9030</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1">
+        <v>100</v>
+      </c>
+      <c r="H67" s="1">
+        <v>100</v>
+      </c>
+      <c r="I67" s="1">
+        <v>100</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1">
-        <v>100</v>
-      </c>
-      <c r="F67" s="1">
-        <v>100</v>
-      </c>
-      <c r="G67" s="1">
-        <v>100</v>
-      </c>
-      <c r="H67" s="1">
-        <v>100</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>9031</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F68" s="1">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1">
+        <v>100</v>
+      </c>
+      <c r="H68" s="1">
+        <v>100</v>
+      </c>
+      <c r="I68" s="1">
+        <v>100</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1">
-        <v>100</v>
-      </c>
-      <c r="F68" s="1">
-        <v>100</v>
-      </c>
-      <c r="G68" s="1">
-        <v>100</v>
-      </c>
-      <c r="H68" s="1">
-        <v>100</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>9032</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F69" s="1">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1">
+        <v>100</v>
+      </c>
+      <c r="H69" s="1">
+        <v>100</v>
+      </c>
+      <c r="I69" s="1">
+        <v>100</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>100</v>
-      </c>
-      <c r="F69" s="1">
-        <v>100</v>
-      </c>
-      <c r="G69" s="1">
-        <v>100</v>
-      </c>
-      <c r="H69" s="1">
-        <v>100</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>9033</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F70" s="1">
+        <v>100</v>
+      </c>
+      <c r="G70" s="1">
+        <v>100</v>
+      </c>
+      <c r="H70" s="1">
+        <v>100</v>
+      </c>
+      <c r="I70" s="1">
+        <v>100</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1">
-        <v>100</v>
-      </c>
-      <c r="F70" s="1">
-        <v>100</v>
-      </c>
-      <c r="G70" s="1">
-        <v>100</v>
-      </c>
-      <c r="H70" s="1">
-        <v>100</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>9034</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3731,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F71" s="1">
         <v>100</v>
@@ -3743,196 +3998,214 @@
         <v>100</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>9035</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>100</v>
+      </c>
+      <c r="G72" s="1">
+        <v>100</v>
+      </c>
+      <c r="H72" s="1">
+        <v>100</v>
+      </c>
+      <c r="I72" s="1">
+        <v>100</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>100</v>
-      </c>
-      <c r="F72" s="1">
-        <v>100</v>
-      </c>
-      <c r="G72" s="1">
-        <v>100</v>
-      </c>
-      <c r="H72" s="1">
-        <v>100</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>9036</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="1">
+        <v>100</v>
+      </c>
+      <c r="I73" s="1">
+        <v>100</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1">
-        <v>100</v>
-      </c>
-      <c r="F73" s="1">
-        <v>100</v>
-      </c>
-      <c r="G73" s="1">
-        <v>100</v>
-      </c>
-      <c r="H73" s="1">
-        <v>100</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>9037</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100</v>
+      </c>
+      <c r="G74" s="1">
+        <v>100</v>
+      </c>
+      <c r="H74" s="1">
+        <v>100</v>
+      </c>
+      <c r="I74" s="1">
+        <v>100</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2</v>
-      </c>
-      <c r="E74" s="1">
-        <v>100</v>
-      </c>
-      <c r="F74" s="1">
-        <v>100</v>
-      </c>
-      <c r="G74" s="1">
-        <v>100</v>
-      </c>
-      <c r="H74" s="1">
-        <v>100</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>9038</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F75" s="1">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1">
+        <v>100</v>
+      </c>
+      <c r="H75" s="1">
+        <v>100</v>
+      </c>
+      <c r="I75" s="1">
+        <v>100</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1">
-        <v>100</v>
-      </c>
-      <c r="F75" s="1">
-        <v>100</v>
-      </c>
-      <c r="G75" s="1">
-        <v>100</v>
-      </c>
-      <c r="H75" s="1">
-        <v>100</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>9039</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F76" s="1">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1">
+        <v>100</v>
+      </c>
+      <c r="H76" s="1">
+        <v>100</v>
+      </c>
+      <c r="I76" s="1">
+        <v>100</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1">
-        <v>100</v>
-      </c>
-      <c r="F76" s="1">
-        <v>100</v>
-      </c>
-      <c r="G76" s="1">
-        <v>100</v>
-      </c>
-      <c r="H76" s="1">
-        <v>100</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>9040</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -3941,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>100</v>
+        <v>10002</v>
       </c>
       <c r="F77" s="1">
         <v>100</v>
@@ -3953,21 +4226,24 @@
         <v>100</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>9041</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -3976,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
@@ -3988,56 +4264,62 @@
         <v>100</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>9042</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F79" s="1">
+        <v>100</v>
+      </c>
+      <c r="G79" s="1">
+        <v>100</v>
+      </c>
+      <c r="H79" s="1">
+        <v>100</v>
+      </c>
+      <c r="I79" s="1">
+        <v>100</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1">
-        <v>100</v>
-      </c>
-      <c r="F79" s="1">
-        <v>100</v>
-      </c>
-      <c r="G79" s="1">
-        <v>100</v>
-      </c>
-      <c r="H79" s="1">
-        <v>100</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>9043</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4046,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>100</v>
+        <v>10004</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
@@ -4058,126 +4340,138 @@
         <v>100</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>9044</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F81" s="1">
+        <v>100</v>
+      </c>
+      <c r="G81" s="1">
+        <v>100</v>
+      </c>
+      <c r="H81" s="1">
+        <v>100</v>
+      </c>
+      <c r="I81" s="1">
+        <v>100</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>100</v>
-      </c>
-      <c r="F81" s="1">
-        <v>100</v>
-      </c>
-      <c r="G81" s="1">
-        <v>100</v>
-      </c>
-      <c r="H81" s="1">
-        <v>100</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>9045</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F82" s="1">
+        <v>100</v>
+      </c>
+      <c r="G82" s="1">
+        <v>100</v>
+      </c>
+      <c r="H82" s="1">
+        <v>100</v>
+      </c>
+      <c r="I82" s="1">
+        <v>100</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1">
-        <v>100</v>
-      </c>
-      <c r="F82" s="1">
-        <v>100</v>
-      </c>
-      <c r="G82" s="1">
-        <v>100</v>
-      </c>
-      <c r="H82" s="1">
-        <v>100</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>9046</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F83" s="1">
+        <v>100</v>
+      </c>
+      <c r="G83" s="1">
+        <v>100</v>
+      </c>
+      <c r="H83" s="1">
+        <v>100</v>
+      </c>
+      <c r="I83" s="1">
+        <v>100</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1">
-        <v>100</v>
-      </c>
-      <c r="F83" s="1">
-        <v>100</v>
-      </c>
-      <c r="G83" s="1">
-        <v>100</v>
-      </c>
-      <c r="H83" s="1">
-        <v>100</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>9047</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4186,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="1">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4198,91 +4492,100 @@
         <v>100</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>9048</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F85" s="1">
+        <v>100</v>
+      </c>
+      <c r="G85" s="1">
+        <v>100</v>
+      </c>
+      <c r="H85" s="1">
+        <v>100</v>
+      </c>
+      <c r="I85" s="1">
+        <v>100</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1">
-        <v>100</v>
-      </c>
-      <c r="F85" s="1">
-        <v>100</v>
-      </c>
-      <c r="G85" s="1">
-        <v>100</v>
-      </c>
-      <c r="H85" s="1">
-        <v>100</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>9049</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>100</v>
+      </c>
+      <c r="G86" s="1">
+        <v>100</v>
+      </c>
+      <c r="H86" s="1">
+        <v>100</v>
+      </c>
+      <c r="I86" s="1">
+        <v>100</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>100</v>
-      </c>
-      <c r="F86" s="1">
-        <v>100</v>
-      </c>
-      <c r="G86" s="1">
-        <v>100</v>
-      </c>
-      <c r="H86" s="1">
-        <v>100</v>
-      </c>
-      <c r="I86" s="1">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>7102</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4291,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1">
         <v>100</v>
@@ -4303,21 +4606,24 @@
         <v>100</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>7103</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4326,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
         <v>100</v>
@@ -4338,21 +4644,24 @@
         <v>100</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>7104</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -4361,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
         <v>100</v>
@@ -4373,21 +4682,24 @@
         <v>100</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>7105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -4396,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
         <v>100</v>
@@ -4408,21 +4720,24 @@
         <v>100</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>7201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4431,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
         <v>100</v>
@@ -4443,21 +4758,24 @@
         <v>100</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>7202</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -4466,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1">
         <v>100</v>
@@ -4478,21 +4796,24 @@
         <v>100</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>7203</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -4501,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1">
         <v>100</v>
@@ -4513,21 +4834,24 @@
         <v>100</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J93" s="1">
         <v>0</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>7204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -4536,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1">
         <v>100</v>
@@ -4548,21 +4872,24 @@
         <v>100</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>7205</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -4571,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
         <v>100</v>
@@ -4583,21 +4910,24 @@
         <v>100</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>7206</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -4606,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="1">
         <v>100</v>
@@ -4618,21 +4948,24 @@
         <v>100</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>7207</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -4641,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1">
         <v>100</v>
@@ -4653,21 +4986,24 @@
         <v>100</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>7208</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -4676,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1">
         <v>100</v>
@@ -4688,21 +5024,24 @@
         <v>100</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>7209</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -4711,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1">
         <v>100</v>
@@ -4723,21 +5062,24 @@
         <v>100</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J99" s="1">
         <v>0</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>7210</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -4746,7 +5088,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1">
         <v>100</v>
@@ -4758,21 +5100,24 @@
         <v>100</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="1">
         <v>0</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>7211</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -4781,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1">
         <v>100</v>
@@ -4793,21 +5138,24 @@
         <v>100</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>7212</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -4816,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
         <v>100</v>
@@ -4828,21 +5176,24 @@
         <v>100</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>7301</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4851,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1">
         <v>100</v>
@@ -4863,21 +5214,24 @@
         <v>100</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>7501</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -4886,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1">
         <v>100</v>
@@ -4898,21 +5252,24 @@
         <v>100</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>7502</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -4921,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1">
         <v>100</v>
@@ -4933,21 +5290,24 @@
         <v>100</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J105" s="1">
         <v>0</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>7503</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -4956,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1">
         <v>100</v>
@@ -4968,13 +5328,168 @@
         <v>100</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>22</v>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>100</v>
+      </c>
+      <c r="G107" s="1">
+        <v>100</v>
+      </c>
+      <c r="H107" s="1">
+        <v>100</v>
+      </c>
+      <c r="I107" s="1">
+        <v>100</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>100</v>
+      </c>
+      <c r="G108" s="1">
+        <v>100</v>
+      </c>
+      <c r="H108" s="1">
+        <v>100</v>
+      </c>
+      <c r="I108" s="1">
+        <v>100</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>100</v>
+      </c>
+      <c r="G109" s="1">
+        <v>100</v>
+      </c>
+      <c r="H109" s="1">
+        <v>100</v>
+      </c>
+      <c r="I109" s="1">
+        <v>100</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>100</v>
+      </c>
+      <c r="G110" s="1">
+        <v>100</v>
+      </c>
+      <c r="H110" s="1">
+        <v>100</v>
+      </c>
+      <c r="I110" s="1">
+        <v>100</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4986,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5003,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5016,7 +5531,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -5024,66 +5539,74 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝刘宏（157年—189年），于建宁元年正月即位。刘宏在位期间，大部分时间施行党锢及宦官政治，又设置西园，巧立名目搜刮钱财，甚至卖官鬻爵。在位晚期爆发了黄巾起义，而凉州等地也陷入持续动乱之中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灵帝时为荡寇将军。中平元年，与董卓西讨北宫伯玉及边章、韩遂，破美阳。慎不用孙坚之计，反被章、遂断其运道，弃车重而败退。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,6 +922,14 @@
   </si>
   <si>
     <t>弓兵装备大弓或强弩，可以远程攻击，但攻击力防御力弱，可以间接攻城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘辩（176年－190年3月6日），东汉第十三位皇帝，公元189年5月15日－189年9月28日在位。被废黜一年之后，刘辩在董卓胁迫下自尽，时年仅十五岁，其弟献帝追谥他为怀王。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L97" activeCellId="1" sqref="L97 L97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,34 +1314,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -1355,7 +1355,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,7 +1393,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1431,7 +1431,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1469,7 +1469,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1507,7 +1507,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1545,7 +1545,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1583,7 +1583,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1621,7 +1621,7 @@
         <v>2001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1659,7 +1659,7 @@
         <v>2002</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1697,7 +1697,7 @@
         <v>2003</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1735,7 +1735,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1773,7 +1773,7 @@
         <v>2005</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1811,7 +1811,7 @@
         <v>2006</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1849,7 +1849,7 @@
         <v>2007</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1887,7 +1887,7 @@
         <v>3001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1925,7 +1925,7 @@
         <v>3002</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1963,7 +1963,7 @@
         <v>3003</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2001,7 +2001,7 @@
         <v>3004</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2039,7 +2039,7 @@
         <v>3005</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2077,7 +2077,7 @@
         <v>3006</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2115,7 +2115,7 @@
         <v>3007</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2153,7 +2153,7 @@
         <v>4001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2191,7 +2191,7 @@
         <v>4002</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2229,7 +2229,7 @@
         <v>4003</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2267,7 +2267,7 @@
         <v>4004</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2305,7 +2305,7 @@
         <v>4005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2343,7 +2343,7 @@
         <v>4006</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2381,7 +2381,7 @@
         <v>4007</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2419,7 +2419,7 @@
         <v>5001</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2457,7 +2457,7 @@
         <v>5002</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2495,7 +2495,7 @@
         <v>5003</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2533,7 +2533,7 @@
         <v>5004</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2571,7 +2571,7 @@
         <v>5005</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2609,7 +2609,7 @@
         <v>5006</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2647,7 +2647,7 @@
         <v>5007</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -2723,7 +2723,7 @@
         <v>9001</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2761,7 +2761,7 @@
         <v>9002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2799,7 +2799,7 @@
         <v>9003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
@@ -2837,7 +2837,7 @@
         <v>9004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -2875,7 +2875,7 @@
         <v>9005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -2913,7 +2913,7 @@
         <v>9006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2951,7 +2951,7 @@
         <v>9007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -2989,7 +2989,7 @@
         <v>9008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>9009</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3065,7 +3065,7 @@
         <v>9010</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3103,7 +3103,7 @@
         <v>9011</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3141,7 +3141,7 @@
         <v>9012</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3179,7 +3179,7 @@
         <v>9013</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3217,7 +3217,7 @@
         <v>9014</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3255,7 +3255,7 @@
         <v>9015</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3293,7 +3293,7 @@
         <v>9016</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3331,7 +3331,7 @@
         <v>9017</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3369,7 +3369,7 @@
         <v>9018</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
@@ -3407,7 +3407,7 @@
         <v>9019</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3445,7 +3445,7 @@
         <v>9020</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3483,7 +3483,7 @@
         <v>9021</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -3521,7 +3521,7 @@
         <v>9022</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3559,7 +3559,7 @@
         <v>9023</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3597,7 +3597,7 @@
         <v>9024</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3635,7 +3635,7 @@
         <v>9025</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3673,7 +3673,7 @@
         <v>9026</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3711,7 +3711,7 @@
         <v>9027</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3749,7 +3749,7 @@
         <v>9028</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3787,7 +3787,7 @@
         <v>9029</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3825,7 +3825,7 @@
         <v>9030</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
@@ -3863,7 +3863,7 @@
         <v>9031</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
@@ -3901,7 +3901,7 @@
         <v>9032</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3939,7 +3939,7 @@
         <v>9033</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3977,7 +3977,7 @@
         <v>9034</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4015,7 +4015,7 @@
         <v>9035</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4053,7 +4053,7 @@
         <v>9036</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4091,7 +4091,7 @@
         <v>9037</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
@@ -4129,7 +4129,7 @@
         <v>9038</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -4167,7 +4167,7 @@
         <v>9039</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4205,7 +4205,7 @@
         <v>9040</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4243,7 +4243,7 @@
         <v>9041</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4281,7 +4281,7 @@
         <v>9042</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4319,7 +4319,7 @@
         <v>9043</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4357,7 +4357,7 @@
         <v>9044</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4395,7 +4395,7 @@
         <v>9045</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4433,7 +4433,7 @@
         <v>9046</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4471,7 +4471,7 @@
         <v>9047</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4509,7 +4509,7 @@
         <v>9048</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -4547,7 +4547,7 @@
         <v>9049</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
@@ -4585,7 +4585,7 @@
         <v>7102</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -4623,7 +4623,7 @@
         <v>7103</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -4661,7 +4661,7 @@
         <v>7104</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -4699,7 +4699,7 @@
         <v>7105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -4737,7 +4737,7 @@
         <v>7201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -4775,7 +4775,7 @@
         <v>7202</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -4813,7 +4813,7 @@
         <v>7203</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -4851,7 +4851,7 @@
         <v>7204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -4889,7 +4889,7 @@
         <v>7205</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -4927,7 +4927,7 @@
         <v>7206</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -4965,7 +4965,7 @@
         <v>7207</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -5003,7 +5003,7 @@
         <v>7208</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -5041,7 +5041,7 @@
         <v>7209</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
@@ -5079,7 +5079,7 @@
         <v>7210</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -5117,7 +5117,7 @@
         <v>7211</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
@@ -5155,7 +5155,7 @@
         <v>7212</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
@@ -5193,7 +5193,7 @@
         <v>7301</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
@@ -5231,7 +5231,7 @@
         <v>7501</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
@@ -5269,7 +5269,7 @@
         <v>7502</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -5307,7 +5307,7 @@
         <v>7503</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
@@ -5345,7 +5345,7 @@
         <v>10001</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
@@ -5383,7 +5383,7 @@
         <v>10002</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
@@ -5421,7 +5421,7 @@
         <v>10003</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
@@ -5459,7 +5459,7 @@
         <v>10004</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5531,7 +5531,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -5539,66 +5539,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
   <si>
     <t>name</t>
   </si>
@@ -901,14 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始技能，技能ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始装备，装备ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刀兵装备一柄长刀和一面盾牌，攻击力弱，防御力高，对枪兵作战有利，可以直接攻城的兵种。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,6 +922,18 @@
   </si>
   <si>
     <t>刘辩（176年－190年3月6日），东汉第十三位皇帝，公元189年5月15日－189年9月28日在位。被废黜一年之后，刘辩在董卓胁迫下自尽，时年仅十五岁，其弟献帝追谥他为怀王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能，技能lv-ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始装备，装备lv-ID字符串，以;分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,12 +964,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -980,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -992,6 +1002,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1311,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,8 +1367,8 @@
       <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>235</v>
+      <c r="B2" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1378,14 +1391,14 @@
       <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="J2" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1620,7 +1633,7 @@
       <c r="A9" s="1">
         <v>2001</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1">
@@ -1644,8 +1657,8 @@
       <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
+      <c r="J9" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1886,7 +1899,7 @@
       <c r="A16" s="1">
         <v>3001</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
@@ -1910,8 +1923,8 @@
       <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
+      <c r="J16" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2152,7 +2165,7 @@
       <c r="A23" s="1">
         <v>4001</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1">
@@ -2176,8 +2189,8 @@
       <c r="I23" s="1">
         <v>100</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
+      <c r="J23" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -2418,7 +2431,7 @@
       <c r="A30" s="1">
         <v>5001</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1">
@@ -2442,8 +2455,8 @@
       <c r="I30" s="1">
         <v>100</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
+      <c r="J30" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -5375,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
@@ -5413,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
@@ -5451,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
@@ -5489,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5517,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5590,7 +5603,7 @@
         <v>220</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5598,7 +5611,7 @@
         <v>221</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,202 +1363,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
+        <v>401</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>402</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>403</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>404</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>10003</v>
       </c>
-      <c r="F2" s="1">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10002</v>
-      </c>
-      <c r="F5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10004</v>
-      </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -1588,15 +1588,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1626,24 +1626,24 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1004</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -1657,31 +1657,31 @@
       <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>235</v>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>1005</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -1702,15 +1702,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>2003</v>
+        <v>1006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1740,15 +1740,15 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>2004</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -1778,24 +1778,24 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>2001</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -1809,31 +1809,31 @@
       <c r="I13" s="1">
         <v>100</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
+      <c r="J13" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>2002</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1854,15 +1854,15 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -1892,24 +1892,24 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1923,22 +1923,22 @@
       <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>235</v>
+      <c r="J16" s="1">
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1968,24 +1968,24 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>3003</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>2006</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -2006,15 +2006,15 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>3004</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -2044,24 +2044,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>3001</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -2075,22 +2075,22 @@
       <c r="I20" s="1">
         <v>100</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
+      <c r="J20" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -2120,24 +2120,24 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>3007</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>3003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -2158,24 +2158,24 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>3004</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -2189,22 +2189,22 @@
       <c r="I23" s="1">
         <v>100</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>235</v>
+      <c r="J23" s="1">
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>4002</v>
+        <v>3005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2234,15 +2234,15 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>4003</v>
+        <v>3006</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -2272,24 +2272,24 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>3007</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -2310,24 +2310,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>4005</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>4001</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -2341,22 +2341,22 @@
       <c r="I27" s="1">
         <v>100</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
+      <c r="J27" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>4006</v>
+        <v>4002</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -2386,24 +2386,24 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>4007</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>168</v>
+        <v>4003</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -2424,24 +2424,24 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>5001</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>4004</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -2455,22 +2455,22 @@
       <c r="I30" s="1">
         <v>100</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>235</v>
+      <c r="J30" s="1">
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5002</v>
+        <v>4005</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -2500,15 +2500,15 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>5003</v>
+        <v>4006</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2538,24 +2538,24 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>5004</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>4007</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -2576,24 +2576,24 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>5005</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>199</v>
+        <v>5001</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2607,22 +2607,22 @@
       <c r="I34" s="1">
         <v>100</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
+      <c r="J34" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
@@ -2652,226 +2652,226 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1">
+        <v>100</v>
+      </c>
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>5007</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E40" s="1">
         <v>10004</v>
       </c>
-      <c r="F36" s="1">
-        <v>100</v>
-      </c>
-      <c r="G36" s="1">
-        <v>100</v>
-      </c>
-      <c r="H36" s="1">
-        <v>100</v>
-      </c>
-      <c r="I36" s="1">
-        <v>100</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>8001</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>9001</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10004</v>
-      </c>
-      <c r="F38" s="1">
-        <v>100</v>
-      </c>
-      <c r="G38" s="1">
-        <v>100</v>
-      </c>
-      <c r="H38" s="1">
-        <v>100</v>
-      </c>
-      <c r="I38" s="1">
-        <v>100</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>9002</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10003</v>
-      </c>
-      <c r="F39" s="1">
-        <v>100</v>
-      </c>
-      <c r="G39" s="1">
-        <v>100</v>
-      </c>
-      <c r="H39" s="1">
-        <v>100</v>
-      </c>
-      <c r="I39" s="1">
-        <v>100</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>9003</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10003</v>
-      </c>
-      <c r="F40" s="1">
-        <v>100</v>
-      </c>
-      <c r="G40" s="1">
-        <v>100</v>
-      </c>
-      <c r="H40" s="1">
-        <v>100</v>
-      </c>
-      <c r="I40" s="1">
-        <v>100</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>9004</v>
+        <v>8001</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2880,24 +2880,24 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>9005</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>9001</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
@@ -2918,24 +2918,24 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>9006</v>
+        <v>9002</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
@@ -2956,24 +2956,24 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>9007</v>
+        <v>9003</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="F44" s="1">
         <v>100</v>
@@ -2994,15 +2994,15 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>9008</v>
+        <v>9004</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -3032,15 +3032,15 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>9009</v>
+        <v>9005</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3070,15 +3070,15 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>9010</v>
+        <v>9006</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F47" s="1">
         <v>100</v>
@@ -3108,15 +3108,15 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>9011</v>
+        <v>9007</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
@@ -3146,24 +3146,24 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>9012</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>9008</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="F49" s="1">
         <v>100</v>
@@ -3184,15 +3184,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>9013</v>
+        <v>9009</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F50" s="1">
         <v>100</v>
@@ -3222,15 +3222,15 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>9014</v>
+        <v>9010</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -3260,15 +3260,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>9015</v>
+        <v>9011</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3298,24 +3298,24 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>9016</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>9012</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="F53" s="1">
         <v>100</v>
@@ -3336,15 +3336,15 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>9017</v>
+        <v>9013</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F54" s="1">
         <v>100</v>
@@ -3374,15 +3374,15 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>9018</v>
+        <v>9014</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F55" s="1">
         <v>100</v>
@@ -3412,15 +3412,15 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>9019</v>
+        <v>9015</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="F56" s="1">
         <v>100</v>
@@ -3450,15 +3450,15 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>9020</v>
+        <v>9016</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F57" s="1">
         <v>100</v>
@@ -3488,15 +3488,15 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>9021</v>
+        <v>9017</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3526,15 +3526,15 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>9022</v>
+        <v>9018</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3564,15 +3564,15 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>9023</v>
+        <v>9019</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3602,15 +3602,15 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>9024</v>
+        <v>9020</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F61" s="1">
         <v>100</v>
@@ -3640,15 +3640,15 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>9025</v>
+        <v>9021</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F62" s="1">
         <v>100</v>
@@ -3678,15 +3678,15 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>9026</v>
+        <v>9022</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3716,15 +3716,15 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>9027</v>
+        <v>9023</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3754,24 +3754,24 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>9028</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>9024</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="F65" s="1">
         <v>100</v>
@@ -3792,15 +3792,15 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>9029</v>
+        <v>9025</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F66" s="1">
         <v>100</v>
@@ -3830,15 +3830,15 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>9030</v>
+        <v>9026</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3847,46 +3847,46 @@
         <v>2</v>
       </c>
       <c r="E67" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1">
+        <v>100</v>
+      </c>
+      <c r="H67" s="1">
+        <v>100</v>
+      </c>
+      <c r="I67" s="1">
+        <v>100</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>9027</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
         <v>10002</v>
       </c>
-      <c r="F67" s="1">
-        <v>100</v>
-      </c>
-      <c r="G67" s="1">
-        <v>100</v>
-      </c>
-      <c r="H67" s="1">
-        <v>100</v>
-      </c>
-      <c r="I67" s="1">
-        <v>100</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <v>9031</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1">
-        <v>10001</v>
-      </c>
       <c r="F68" s="1">
         <v>100</v>
       </c>
@@ -3906,24 +3906,24 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>9032</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>9028</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
@@ -3944,15 +3944,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>9033</v>
+        <v>9029</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3982,24 +3982,24 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>9034</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>9030</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="F71" s="1">
         <v>100</v>
@@ -4020,15 +4020,15 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>9035</v>
+        <v>9031</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -4058,15 +4058,15 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>9036</v>
+        <v>9032</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -4096,15 +4096,15 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>9037</v>
+        <v>9033</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F74" s="1">
         <v>100</v>
@@ -4134,24 +4134,24 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>9038</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>172</v>
+        <v>9034</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F75" s="1">
         <v>100</v>
@@ -4172,15 +4172,15 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>9039</v>
+        <v>9035</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4210,21 +4210,21 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>9040</v>
+        <v>9036</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1">
         <v>10002</v>
@@ -4248,24 +4248,24 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>9041</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>9037</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
@@ -4286,15 +4286,15 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>9042</v>
+        <v>9038</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F79" s="1">
         <v>100</v>
@@ -4324,24 +4324,24 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>9043</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>9039</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
@@ -4362,24 +4362,24 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>9044</v>
+        <v>9040</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F81" s="1">
         <v>100</v>
@@ -4400,24 +4400,24 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>9045</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>9041</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="F82" s="1">
         <v>100</v>
@@ -4438,15 +4438,15 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>9046</v>
+        <v>9042</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F83" s="1">
         <v>100</v>
@@ -4476,24 +4476,24 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>9047</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>189</v>
+        <v>9043</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4514,15 +4514,15 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>9048</v>
+        <v>9044</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4531,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F85" s="1">
         <v>100</v>
@@ -4552,205 +4552,205 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
+        <v>9045</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F86" s="1">
+        <v>100</v>
+      </c>
+      <c r="G86" s="1">
+        <v>100</v>
+      </c>
+      <c r="H86" s="1">
+        <v>100</v>
+      </c>
+      <c r="I86" s="1">
+        <v>100</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>9046</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F87" s="1">
+        <v>100</v>
+      </c>
+      <c r="G87" s="1">
+        <v>100</v>
+      </c>
+      <c r="H87" s="1">
+        <v>100</v>
+      </c>
+      <c r="I87" s="1">
+        <v>100</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>9047</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>10003</v>
+      </c>
+      <c r="F88" s="1">
+        <v>100</v>
+      </c>
+      <c r="G88" s="1">
+        <v>100</v>
+      </c>
+      <c r="H88" s="1">
+        <v>100</v>
+      </c>
+      <c r="I88" s="1">
+        <v>100</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>9048</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>10002</v>
+      </c>
+      <c r="F89" s="1">
+        <v>100</v>
+      </c>
+      <c r="G89" s="1">
+        <v>100</v>
+      </c>
+      <c r="H89" s="1">
+        <v>100</v>
+      </c>
+      <c r="I89" s="1">
+        <v>100</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
         <v>9049</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>100</v>
-      </c>
-      <c r="G86" s="1">
-        <v>100</v>
-      </c>
-      <c r="H86" s="1">
-        <v>100</v>
-      </c>
-      <c r="I86" s="1">
-        <v>100</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3" t="s">
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>100</v>
+      </c>
+      <c r="G90" s="1">
+        <v>100</v>
+      </c>
+      <c r="H90" s="1">
+        <v>100</v>
+      </c>
+      <c r="I90" s="1">
+        <v>100</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
-        <v>7102</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>100</v>
-      </c>
-      <c r="G87" s="1">
-        <v>100</v>
-      </c>
-      <c r="H87" s="1">
-        <v>100</v>
-      </c>
-      <c r="I87" s="1">
-        <v>100</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
-        <v>7103</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
-        <v>100</v>
-      </c>
-      <c r="G88" s="1">
-        <v>100</v>
-      </c>
-      <c r="H88" s="1">
-        <v>100</v>
-      </c>
-      <c r="I88" s="1">
-        <v>100</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0</v>
-      </c>
-      <c r="K88" s="1">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
-        <v>7104</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1">
-        <v>100</v>
-      </c>
-      <c r="G89" s="1">
-        <v>100</v>
-      </c>
-      <c r="H89" s="1">
-        <v>100</v>
-      </c>
-      <c r="I89" s="1">
-        <v>100</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
-        <v>7105</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>100</v>
-      </c>
-      <c r="G90" s="1">
-        <v>100</v>
-      </c>
-      <c r="H90" s="1">
-        <v>100</v>
-      </c>
-      <c r="I90" s="1">
-        <v>100</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>7201</v>
+        <v>7102</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4779,16 +4779,16 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>42</v>
+      <c r="L91" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>7202</v>
+        <v>7103</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -4817,16 +4817,16 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>43</v>
+      <c r="L92" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>7203</v>
+        <v>7104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -4855,16 +4855,16 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>44</v>
+      <c r="L93" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>7204</v>
+        <v>7105</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -4893,16 +4893,16 @@
       <c r="K94" s="1">
         <v>0</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>72</v>
+      <c r="L94" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>7205</v>
+        <v>7201</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -4932,15 +4932,15 @@
         <v>0</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>7206</v>
+        <v>7202</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -4970,15 +4970,15 @@
         <v>0</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>7207</v>
+        <v>7203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -5008,15 +5008,15 @@
         <v>0</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>7208</v>
+        <v>7204</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -5046,15 +5046,15 @@
         <v>0</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>7209</v>
+        <v>7205</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -5084,15 +5084,15 @@
         <v>0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>7210</v>
+        <v>7206</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -5122,15 +5122,15 @@
         <v>0</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>7211</v>
+        <v>7207</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -5160,15 +5160,15 @@
         <v>0</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>7212</v>
+        <v>7208</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -5198,15 +5198,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>7301</v>
+        <v>7209</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5236,15 +5236,15 @@
         <v>0</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>7501</v>
+        <v>7210</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -5274,15 +5274,15 @@
         <v>0</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>7502</v>
+        <v>7211</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -5312,15 +5312,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>7503</v>
+        <v>7212</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -5350,15 +5350,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>10001</v>
+        <v>7301</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -5387,16 +5387,16 @@
       <c r="K107" s="1">
         <v>0</v>
       </c>
-      <c r="L107" s="3" t="s">
-        <v>229</v>
+      <c r="L107" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>10002</v>
+        <v>7501</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -5425,16 +5425,16 @@
       <c r="K108" s="1">
         <v>0</v>
       </c>
-      <c r="L108" s="3" t="s">
-        <v>230</v>
+      <c r="L108" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>10003</v>
+        <v>7502</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -5463,22 +5463,22 @@
       <c r="K109" s="1">
         <v>0</v>
       </c>
-      <c r="L109" s="3" t="s">
-        <v>231</v>
+      <c r="L109" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>10004</v>
+        <v>7503</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -5501,8 +5501,8 @@
       <c r="K110" s="1">
         <v>0</v>
       </c>
-      <c r="L110" s="3" t="s">
-        <v>232</v>
+      <c r="L110" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="242">
   <si>
     <t>name</t>
   </si>
@@ -934,6 +934,22 @@
   </si>
   <si>
     <t>初始装备，装备lv-ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;404</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1327,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1528,8 +1544,8 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>10003</v>
+      <c r="E6" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1567,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -1605,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -1643,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -1681,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -1719,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -1757,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -1794,8 +1810,8 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>10003</v>
+      <c r="E13" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -1833,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1871,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -1909,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1947,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -1985,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -2023,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -2060,8 +2076,8 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <v>10003</v>
+      <c r="E20" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -2099,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -2137,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -2175,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -2213,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -2251,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -2289,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -2326,8 +2342,8 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>10003</v>
+      <c r="E27" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -2365,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -2403,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -2441,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -2479,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -2517,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -2555,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -2592,8 +2608,8 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1">
-        <v>10003</v>
+      <c r="E34" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2631,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
@@ -2669,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F36" s="1">
         <v>100</v>
@@ -2707,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F37" s="1">
         <v>100</v>
@@ -2745,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F38" s="1">
         <v>100</v>
@@ -2783,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F39" s="1">
         <v>100</v>
@@ -2821,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
@@ -2897,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
@@ -2935,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
@@ -2973,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F44" s="1">
         <v>100</v>
@@ -3011,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F45" s="1">
         <v>100</v>
@@ -3049,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F46" s="1">
         <v>100</v>
@@ -3087,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F47" s="1">
         <v>100</v>
@@ -3125,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
@@ -3163,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F49" s="1">
         <v>100</v>
@@ -3201,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F50" s="1">
         <v>100</v>
@@ -3239,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F51" s="1">
         <v>100</v>
@@ -3277,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F52" s="1">
         <v>100</v>
@@ -3315,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F53" s="1">
         <v>100</v>
@@ -3353,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F54" s="1">
         <v>100</v>
@@ -3391,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1">
         <v>100</v>
@@ -3429,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F56" s="1">
         <v>100</v>
@@ -3467,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F57" s="1">
         <v>100</v>
@@ -3505,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F58" s="1">
         <v>100</v>
@@ -3543,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F59" s="1">
         <v>100</v>
@@ -3581,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F60" s="1">
         <v>100</v>
@@ -3619,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F61" s="1">
         <v>100</v>
@@ -3657,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F62" s="1">
         <v>100</v>
@@ -3695,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F63" s="1">
         <v>100</v>
@@ -3733,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F64" s="1">
         <v>100</v>
@@ -3771,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F65" s="1">
         <v>100</v>
@@ -3809,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F66" s="1">
         <v>100</v>
@@ -3847,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F67" s="1">
         <v>100</v>
@@ -3885,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F68" s="1">
         <v>100</v>
@@ -3923,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
@@ -3961,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3999,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F71" s="1">
         <v>100</v>
@@ -4037,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F72" s="1">
         <v>100</v>
@@ -4075,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F73" s="1">
         <v>100</v>
@@ -4113,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F74" s="1">
         <v>100</v>
@@ -4151,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F75" s="1">
         <v>100</v>
@@ -4189,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F76" s="1">
         <v>100</v>
@@ -4227,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F77" s="1">
         <v>100</v>
@@ -4265,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
@@ -4303,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F79" s="1">
         <v>100</v>
@@ -4341,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
@@ -4379,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F81" s="1">
         <v>100</v>
@@ -4417,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F82" s="1">
         <v>100</v>
@@ -4455,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F83" s="1">
         <v>100</v>
@@ -4493,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="1">
-        <v>10004</v>
+        <v>403</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4531,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F85" s="1">
         <v>100</v>
@@ -4569,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F86" s="1">
         <v>100</v>
@@ -4607,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="1">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="F87" s="1">
         <v>100</v>
@@ -4645,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="1">
-        <v>10003</v>
+        <v>404</v>
       </c>
       <c r="F88" s="1">
         <v>100</v>
@@ -4683,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="F89" s="1">
         <v>100</v>

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="245">
   <si>
     <t>name</t>
   </si>
@@ -950,6 +950,18 @@
   </si>
   <si>
     <t>401;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8101;1-8201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8101;1-8201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8101;1-8201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1339,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1562,8 +1574,8 @@
       <c r="J6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
+      <c r="K6" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>234</v>
@@ -1828,8 +1840,8 @@
       <c r="J13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
+      <c r="K13" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>40</v>
@@ -2094,8 +2106,8 @@
       <c r="J20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>115</v>
@@ -2360,8 +2372,8 @@
       <c r="J27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K27" s="1">
-        <v>0</v>
+      <c r="K27" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>154</v>
@@ -2626,8 +2638,8 @@
       <c r="J34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
+      <c r="K34" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>184</v>

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,10 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始血量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始智力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,6 +958,10 @@
   </si>
   <si>
     <t>1-8101;1-8201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始血量值(武将值要比是士兵值大的多）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,7 +1367,7 @@
         <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1396,7 +1396,7 @@
         <v>401</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1411,13 +1411,13 @@
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1434,7 +1434,7 @@
         <v>402</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1449,13 +1449,13 @@
         <v>100</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1472,7 +1472,7 @@
         <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1510,7 +1510,7 @@
         <v>404</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1525,13 +1525,13 @@
         <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>1001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1557,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -1572,13 +1572,13 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,10 +1598,10 @@
         <v>404</v>
       </c>
       <c r="F7" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
@@ -1636,10 +1636,10 @@
         <v>401</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
@@ -1674,10 +1674,10 @@
         <v>402</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -1712,10 +1712,10 @@
         <v>403</v>
       </c>
       <c r="F10" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
@@ -1750,10 +1750,10 @@
         <v>402</v>
       </c>
       <c r="F11" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="1">
         <v>100</v>
@@ -1788,10 +1788,10 @@
         <v>401</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="1">
         <v>100</v>
@@ -1823,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G13" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
@@ -1838,10 +1838,10 @@
         <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>40</v>
@@ -1864,10 +1864,10 @@
         <v>404</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="1">
         <v>100</v>
@@ -1902,10 +1902,10 @@
         <v>402</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="1">
         <v>100</v>
@@ -1940,10 +1940,10 @@
         <v>402</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="1">
         <v>100</v>
@@ -1978,10 +1978,10 @@
         <v>401</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="1">
         <v>100</v>
@@ -2016,10 +2016,10 @@
         <v>403</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="1">
         <v>100</v>
@@ -2054,10 +2054,10 @@
         <v>401</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -2089,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="1">
         <v>100</v>
@@ -2104,10 +2104,10 @@
         <v>100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>115</v>
@@ -2130,10 +2130,10 @@
         <v>401</v>
       </c>
       <c r="F21" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="1">
         <v>100</v>
@@ -2168,10 +2168,10 @@
         <v>404</v>
       </c>
       <c r="F22" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="1">
         <v>100</v>
@@ -2206,10 +2206,10 @@
         <v>402</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="1">
         <v>100</v>
@@ -2244,10 +2244,10 @@
         <v>401</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="1">
         <v>100</v>
@@ -2282,10 +2282,10 @@
         <v>402</v>
       </c>
       <c r="F25" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="1">
         <v>100</v>
@@ -2320,10 +2320,10 @@
         <v>403</v>
       </c>
       <c r="F26" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="1">
         <v>100</v>
@@ -2355,13 +2355,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="1">
         <v>100</v>
@@ -2370,10 +2370,10 @@
         <v>100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>154</v>
@@ -2396,10 +2396,10 @@
         <v>401</v>
       </c>
       <c r="F28" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="1">
         <v>100</v>
@@ -2434,10 +2434,10 @@
         <v>404</v>
       </c>
       <c r="F29" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="1">
         <v>100</v>
@@ -2472,10 +2472,10 @@
         <v>402</v>
       </c>
       <c r="F30" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G30" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="1">
         <v>100</v>
@@ -2510,10 +2510,10 @@
         <v>401</v>
       </c>
       <c r="F31" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G31" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="1">
         <v>100</v>
@@ -2548,10 +2548,10 @@
         <v>402</v>
       </c>
       <c r="F32" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="1">
         <v>100</v>
@@ -2586,10 +2586,10 @@
         <v>403</v>
       </c>
       <c r="F33" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="1">
         <v>100</v>
@@ -2621,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F34" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G34" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="1">
         <v>100</v>
@@ -2636,10 +2636,10 @@
         <v>100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>184</v>
@@ -2662,10 +2662,10 @@
         <v>404</v>
       </c>
       <c r="F35" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="1">
         <v>100</v>
@@ -2700,10 +2700,10 @@
         <v>402</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="1">
         <v>100</v>
@@ -2738,10 +2738,10 @@
         <v>402</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="1">
         <v>100</v>
@@ -2776,10 +2776,10 @@
         <v>401</v>
       </c>
       <c r="F38" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="1">
         <v>100</v>
@@ -2814,10 +2814,10 @@
         <v>401</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H39" s="1">
         <v>100</v>
@@ -2852,10 +2852,10 @@
         <v>403</v>
       </c>
       <c r="F40" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H40" s="1">
         <v>100</v>
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2928,10 +2928,10 @@
         <v>403</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="1">
         <v>100</v>
@@ -2966,10 +2966,10 @@
         <v>404</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G43" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="1">
         <v>100</v>
@@ -3004,10 +3004,10 @@
         <v>404</v>
       </c>
       <c r="F44" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G44" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H44" s="1">
         <v>100</v>
@@ -3042,10 +3042,10 @@
         <v>401</v>
       </c>
       <c r="F45" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="1">
         <v>100</v>
@@ -3080,10 +3080,10 @@
         <v>402</v>
       </c>
       <c r="F46" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="1">
         <v>100</v>
@@ -3118,10 +3118,10 @@
         <v>401</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="1">
         <v>100</v>
@@ -3156,10 +3156,10 @@
         <v>402</v>
       </c>
       <c r="F48" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="1">
         <v>100</v>
@@ -3194,10 +3194,10 @@
         <v>401</v>
       </c>
       <c r="F49" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="1">
         <v>100</v>
@@ -3232,10 +3232,10 @@
         <v>402</v>
       </c>
       <c r="F50" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G50" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H50" s="1">
         <v>100</v>
@@ -3270,10 +3270,10 @@
         <v>404</v>
       </c>
       <c r="F51" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G51" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H51" s="1">
         <v>100</v>
@@ -3308,10 +3308,10 @@
         <v>404</v>
       </c>
       <c r="F52" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="1">
         <v>100</v>
@@ -3346,10 +3346,10 @@
         <v>403</v>
       </c>
       <c r="F53" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G53" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H53" s="1">
         <v>100</v>
@@ -3384,10 +3384,10 @@
         <v>401</v>
       </c>
       <c r="F54" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G54" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H54" s="1">
         <v>100</v>
@@ -3422,10 +3422,10 @@
         <v>404</v>
       </c>
       <c r="F55" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H55" s="1">
         <v>100</v>
@@ -3460,10 +3460,10 @@
         <v>404</v>
       </c>
       <c r="F56" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G56" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H56" s="1">
         <v>100</v>
@@ -3498,10 +3498,10 @@
         <v>404</v>
       </c>
       <c r="F57" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="1">
         <v>100</v>
@@ -3536,10 +3536,10 @@
         <v>402</v>
       </c>
       <c r="F58" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="1">
         <v>100</v>
@@ -3574,10 +3574,10 @@
         <v>401</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="1">
         <v>100</v>
@@ -3612,10 +3612,10 @@
         <v>402</v>
       </c>
       <c r="F60" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="1">
         <v>100</v>
@@ -3650,10 +3650,10 @@
         <v>401</v>
       </c>
       <c r="F61" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="1">
         <v>100</v>
@@ -3688,10 +3688,10 @@
         <v>402</v>
       </c>
       <c r="F62" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="1">
         <v>100</v>
@@ -3726,10 +3726,10 @@
         <v>401</v>
       </c>
       <c r="F63" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H63" s="1">
         <v>100</v>
@@ -3764,10 +3764,10 @@
         <v>402</v>
       </c>
       <c r="F64" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G64" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H64" s="1">
         <v>100</v>
@@ -3802,10 +3802,10 @@
         <v>404</v>
       </c>
       <c r="F65" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H65" s="1">
         <v>100</v>
@@ -3840,10 +3840,10 @@
         <v>404</v>
       </c>
       <c r="F66" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G66" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H66" s="1">
         <v>100</v>
@@ -3878,10 +3878,10 @@
         <v>401</v>
       </c>
       <c r="F67" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G67" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H67" s="1">
         <v>100</v>
@@ -3916,10 +3916,10 @@
         <v>402</v>
       </c>
       <c r="F68" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G68" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H68" s="1">
         <v>100</v>
@@ -3954,10 +3954,10 @@
         <v>403</v>
       </c>
       <c r="F69" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G69" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H69" s="1">
         <v>100</v>
@@ -3992,10 +3992,10 @@
         <v>401</v>
       </c>
       <c r="F70" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G70" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="1">
         <v>100</v>
@@ -4030,10 +4030,10 @@
         <v>402</v>
       </c>
       <c r="F71" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G71" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H71" s="1">
         <v>100</v>
@@ -4068,10 +4068,10 @@
         <v>401</v>
       </c>
       <c r="F72" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G72" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H72" s="1">
         <v>100</v>
@@ -4106,10 +4106,10 @@
         <v>402</v>
       </c>
       <c r="F73" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G73" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H73" s="1">
         <v>100</v>
@@ -4144,10 +4144,10 @@
         <v>404</v>
       </c>
       <c r="F74" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G74" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H74" s="1">
         <v>100</v>
@@ -4182,10 +4182,10 @@
         <v>403</v>
       </c>
       <c r="F75" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G75" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H75" s="1">
         <v>100</v>
@@ -4220,10 +4220,10 @@
         <v>401</v>
       </c>
       <c r="F76" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G76" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H76" s="1">
         <v>100</v>
@@ -4258,10 +4258,10 @@
         <v>402</v>
       </c>
       <c r="F77" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G77" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H77" s="1">
         <v>100</v>
@@ -4296,10 +4296,10 @@
         <v>401</v>
       </c>
       <c r="F78" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G78" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H78" s="1">
         <v>100</v>
@@ -4334,10 +4334,10 @@
         <v>402</v>
       </c>
       <c r="F79" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G79" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H79" s="1">
         <v>100</v>
@@ -4372,10 +4372,10 @@
         <v>401</v>
       </c>
       <c r="F80" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G80" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H80" s="1">
         <v>100</v>
@@ -4410,10 +4410,10 @@
         <v>402</v>
       </c>
       <c r="F81" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H81" s="1">
         <v>100</v>
@@ -4448,10 +4448,10 @@
         <v>403</v>
       </c>
       <c r="F82" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H82" s="1">
         <v>100</v>
@@ -4486,10 +4486,10 @@
         <v>404</v>
       </c>
       <c r="F83" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="1">
         <v>100</v>
@@ -4524,10 +4524,10 @@
         <v>403</v>
       </c>
       <c r="F84" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G84" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H84" s="1">
         <v>100</v>
@@ -4562,10 +4562,10 @@
         <v>401</v>
       </c>
       <c r="F85" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G85" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H85" s="1">
         <v>100</v>
@@ -4600,10 +4600,10 @@
         <v>402</v>
       </c>
       <c r="F86" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H86" s="1">
         <v>100</v>
@@ -4638,10 +4638,10 @@
         <v>401</v>
       </c>
       <c r="F87" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G87" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H87" s="1">
         <v>100</v>
@@ -4676,10 +4676,10 @@
         <v>404</v>
       </c>
       <c r="F88" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G88" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H88" s="1">
         <v>100</v>
@@ -4714,10 +4714,10 @@
         <v>402</v>
       </c>
       <c r="F89" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G89" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H89" s="1">
         <v>100</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G90" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H90" s="1">
         <v>100</v>
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G91" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H91" s="1">
         <v>100</v>
@@ -4828,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G92" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H92" s="1">
         <v>100</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G93" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H93" s="1">
         <v>100</v>
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G94" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H94" s="1">
         <v>100</v>
@@ -4942,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H95" s="1">
         <v>100</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G96" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H96" s="1">
         <v>100</v>
@@ -5018,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G97" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H97" s="1">
         <v>100</v>
@@ -5056,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G98" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H98" s="1">
         <v>100</v>
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G99" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H99" s="1">
         <v>100</v>
@@ -5132,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G100" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H100" s="1">
         <v>100</v>
@@ -5170,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="1">
         <v>100</v>
@@ -5208,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G102" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H102" s="1">
         <v>100</v>
@@ -5246,10 +5246,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G103" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H103" s="1">
         <v>100</v>
@@ -5284,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G104" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H104" s="1">
         <v>100</v>
@@ -5322,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G105" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H105" s="1">
         <v>100</v>
@@ -5360,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G106" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H106" s="1">
         <v>100</v>
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G107" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H107" s="1">
         <v>100</v>
@@ -5436,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G108" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H108" s="1">
         <v>100</v>
@@ -5474,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G109" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H109" s="1">
         <v>100</v>
@@ -5512,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G110" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H110" s="1">
         <v>100</v>
@@ -5544,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5599,7 +5599,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5607,7 +5607,7 @@
         <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -5615,7 +5615,7 @@
         <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5623,23 +5623,23 @@
         <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -871,851 +871,851 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>韩遂（？－215年），字文约。凉州金城郡人。东汉末年军阀，聚众十万，先后败皇甫嵩、张温、董卓、孙坚等名将，后受朝廷招安，拥兵割据一方长达三十余年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于毒是今河南省鹤壁市淇县人，东汉末年黑山军首领的之一，曾与曹操、袁绍大战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕，本姓褚，生卒年不详，常山真定（今河北正定南）人，东汉末黑山军首领。张燕剽捍，敏捷过人，军中称为“飞燕”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒（？—199年），字伯圭，辽西令支（今河北迁安）人，东汉末年军阀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术（？－199年），字公路，汝南汝阳（今河南商水西南）人，袁逢之嫡次子，袁基、袁绍之弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严白虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严白虎（生卒年不详），东汉末年盘据吴郡一带的地方豪帅，原名“严虎”，别号“白虎”，吴郡乌程县人，山贼出身的豪帅，严舆之兄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秋，汉末凉州军阀之一，三国时期魏国将领。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成宜（？-211年），东汉末年凉州军阀之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管亥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州黄巾军渠帅，率军侵略北海，围北海相孔融于都昌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张曼成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张曼成（？—184年），东汉末年黄巾之乱时南阳黄巾军首领，杀郡守褚贡，一度占据宛城数月，后为秦颉所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波才，黄巾军高级将领，统领东方黄巾军部队。曾在黄巾起义初期取得一定战果，但在长社之战败北。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭脱，汉末年黄巾军渠帅。汉将皇甫嵩、朱隽乘胜进讨汝南、陈国黄巾，追波才于阳翟，击脱于西华，并破之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眭固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眭固（？－199年），字白兔，东汉末期人物，蓟州人。原为黑山贼，与于毒、白绕齐名，与袁术合谋共攻东郡，反为曹操所败，后成为张杨部下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙范，辽西令支（今河北迁安）人。东汉末年武将，公孙瓒从弟，官至勃海太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严纲（163年-199年），东汉末年公孙瓒部下的冀州刺史。献帝初平二年，公孙瓒以严纲为冀州刺史。袁绍与瓒战于界桥，纲为袁绍部将麴义所斩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单经，生卒年不详，东汉末年公孙瓒的部下。献帝初平中，瓒以经为兖州刺史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋是东汉末年军阀袁术麾下的重要将领，袁术称帝后的大将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥蕤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥蕤（？—197年），袁术麾下大将，为袁术开拓地盘立下了一定战功，后被曹操军击破身亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪灵，字伏义，是东汉末年袁术帐下将领，勇猛非常，曾奉命率军攻打小沛的刘备，在吕布辕门射戟的调停下撤兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超（？－195年），表字不详，东平寿张（今山东寿张）人，东汉末年的广陵太守，张邈之弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛礼(?-195年)，本为彭城相，后为陶谦所逼，屯兵秣陵，与笮融同奉刘繇为盟主。孙策攻刘繇，笮融、薛礼被击败，薛礼后被笮融所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张英，东汉末扬州刺史刘繇属将。屯当利口以拒袁术，术遣孙贲、吴景击之，未能拔。后为孙策所破。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑀，字公玮，生卒年不详，东汉末年下邳淮浦（今江苏涟水西）人。历任议郎、扬州刺史、吴郡太守、故安都尉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖郎，生卒年不详，陵阳人。东汉末年在泾县一带活动的山贼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺（？－199年），东汉末年吕布帐下中郎将。史载高顺为人清白有威严，不好饮酒，所统率的部队精锐非常，号称“陷阵营”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文聘，生卒年不详，字仲业，南阳宛人，三国时期曹魏名将。本来是荆州刘表的大将。刘表死后，其子刘琮降曹操。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段煨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段煨（？—209年），字忠明。武威姑臧（今甘肃武威）人。原为董卓帐下将领，董卓令他屯兵华阴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛辅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛辅，董卓的女婿，曾任中郎将，征讨白波军，不能取胜。董卓被杀时，牛辅别屯于陕地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李堪（？-211），河东人，东汉末年凉州军阀之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎行，生卒年不详，字彦明，金城人（今甘肃省兰州市附近），是东汉末年三国时期人物，对于曹操消灭韩遂平定凉州起了重大作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵弘（？-184年），东汉末年黄巾之乱时南阳黄巾军第二任首领，与朱儁秦颉徐璆等朝廷军队对垒数月有余，最终战死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李大目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李大目，男，是《三国志·魏书·张燕传》注引《典略》中所描述的一个人物。三国时期黄巾将领，生卒年不详。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白绕，东汉末年黑山军首领之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于氐根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于氐根，指汉末一支农民起义军首领的称号。“于羝根”非其真名。由于他的胡子相互缠绕，所以他自称“ 于羝根”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栾提於夫罗（150年－196年），又名于扶罗，号持至尸逐侯单于，中国东汉末年，南匈奴单于栾提羌渠之子、栾提呼厨泉之兄、刘豹之父、汉赵帝刘渊之祖父。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹丹（生卒年不详），东汉末期人物。公孙瓒部下，曾被公孙瓒封为渔阳太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙续，生卒年不详，辽西令支（今河北迁安）人。东汉末期人物，公孙瓒之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周昕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周昕，字泰明。会稽（今浙江绍兴）人。袁绍部将、丹杨太守。周昂、周喁之兄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹豹，东汉末年徐州牧陶谦的部将。其女曹氏为吕布次妻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王楷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王楷，生卒年不详，东汉末年吕布部下谋士。与许汜一样，同是献计吕布与袁术再约婚，以解下邳之围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦颉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦颉，字初起，荆州南郡鄀县人。中平元年三月，荆州南阳郡黄巾军首领张曼成攻杀太守褚贡。江夏都尉秦颉临危受命，继任南阳郡太守的职位，负责讨伐黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭石，东汉末年人物，响应长沙区星的叛乱，联合周朝的零陵、桂阳郡举兵。被打败区星的长沙太守孙坚所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁胤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁胤，东汉末袁术部将。汝南汝阳（今河南商水西南）人。曾任丹阳太守为孙策击走。袁术死后，与黄猗等抬术棺柩，带领余众投奔皖城刘勋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旋（？─209年？），字元机，东汉末年京兆人，或为西汉名臣金日磾后裔，有一子金祎。担任过黄门侍郎、汉阳太守，先后官拜议郎、中郎将等官职，最后成为荆州的武陵太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵范，生卒年不详，他是东汉末年荆南桂阳郡太守，刘备攻荆南时投降。后因怀有异心逃走，不知所踪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡瑁（生卒年不详），字德珪，襄阳蔡州（今湖北襄阳）人。东汉末年荆州名族，蔡讽之子，姑母（蔡讽之姐）是太尉张温之妻，长姐与二姐先后嫁给黄承彦与刘表成为继室。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦（132年－194年），字恭祖。丹阳郡（治今安徽宣城）人，性格刚直，有大志，曾随张温征韩遂、边章。后拜安东将军、徐州牧，封溧阳侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表（142年－208年），字景升，山阳郡高平县（今山东微山）人。东汉末年宗室、名士，西汉鲁恭王刘余之后。官至镇南将军、荆州牧、假节，封成武侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘繇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘繇（156年－197年），字正礼。东莱牟平（今山东牟平）人。东汉末年官员、汉室宗亲，齐悼惠王刘肥之后，太尉刘宠之侄。先后与袁术、孙策战，朝廷加其为扬州牧、振武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩玄，东汉末年至三国时期人，在汉末担任荆州的长沙太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宫（？－199年），字公台，东汉末年吕布帐下首席谋士，东郡东武阳（今山东莘县）人。性情刚直，足智多谋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角（？－184年），钜鹿（今河北宁晋）人。 因得到道士于吉等人所传《太平清领书》（即《太平经》），而成为太平道的创始人，号称“天公将军”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宝（？－184年），钜鹿（治今河北平乡）人，东汉末黄巾起义首领之一，张角的弟弟，张梁的哥哥，号称“地公将军”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梁（？－184年），钜鹿（治今河北巨鹿）人，东汉末年黄巾起义首领之一，张角、张宝之弟，号称“人公将军”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笮融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笮融，东汉末豪强。丹阳（治今安徽宣城）人。初聚众数百，往依徐州牧陶谦。谦使督广陵、彭城运漕，并任下邳相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯越（？－214年），字异度，襄阳中庐（今湖北襄阳西南）人。刘表病逝后与刘琮一同投降曹操，后来官至光禄勋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张邈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张邈（？－195年），字孟卓，东平寿张（今山东东平县）人。东汉末年陈留太守，曾参与讨伐董卓。后曹操带兵讨伐陶谦时，张邈与陈宫叛曹迎吕布为兖州牧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许贡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许贡，东汉末官吏。先后任吴郡都尉、太守，欲送密信给曹操，要曹操注意孙策，却被孙策发现而被杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞翻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞翻（164年－233年），字仲翔，会稽余姚（今浙江余姚）人。日南太守虞歆之子。三国时期吴国官员。善使长矛，精通《易》学，又兼通医术，可谓文武全才。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度，东汉末年零陵太守。刘备征讨荆南四郡时，零陵首当其冲，刘度望风而降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈登，字元龙，下邳淮浦（今江苏涟水西）人。东汉末年将领。为人爽朗，性格沈静，智谋过人。徐州牧陶谦提拔他为典农校尉，主管一州农业生产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯良，字子柔，襄阳中庐人。蒯良为刘表定下安抚荆楚的政治方向，佐其成业，被刘表誉为“雍季之论”。与蒯越、蒯祺（诸葛亮姐夫）或为同族兄弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiangLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiangLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵掌握熟练度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵掌握熟练度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵掌握熟练度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵掌握熟练度等级，0-10,0为未获取相应兵种印玺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始血量值(武将值要比是士兵值大的多）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始智力值（hp,mp,atk,def士兵的数据值为1000士兵的总值，单个士兵需要除1000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董越，东汉末年人。董卓手下东中郎将，曾被董卓派往渑池驻扎，抵御关东反董联军的进攻，董卓死后董越被董卓女婿牛辅所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡珍，又名胡文才，凉州豪族。董卓手下将领，地位在李催、郭祀之上。 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱儁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将领ID字符串，四位：1汉阵营将领，2赵阵营将领，3魏阵营将领，4吴阵营将领，5蜀阵营将领，6待用，7备注将领，8系统NPC，9叛军将领，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘协（181年—234年），即汉献帝，东汉最后一任皇帝。刘协初封渤海王，后改封陈留王。中平六年（189年），董卓废汉少帝刘辩，立刘协为皇帝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵装备厚甲和一支长枪或长戟，攻击力高，防御力弱，对骑兵作战有利，可以直接攻城的兵种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵装备一柄长刀和一面盾牌，攻击力弱，防御力高，对枪兵作战有利，可以直接攻城的兵种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵装备大弓或强弩，可以远程攻击，但攻击力防御力弱，可以间接攻城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵装备战马和马刀，高攻击力移动力，弱防御力，对刀兵弓兵作战有利，但是攻城力较弱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘汉女指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁赵女指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹魏女指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙吴女指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘汉中书令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁赵中书令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹魏中书令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙吴中书令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉中书令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官印小使（太守及以下官印使者）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官印大使（州牧及以上官印使者）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫嵩（？—195年），字义真。安定郡朝那县（今宁夏彭阳）人。东汉末期名将，历任车骑将军、太尉、光禄大夫、太常等职。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱儁（？—195年），字公伟。会稽郡上虞县（今浙江绍兴上虞区）人。东汉末年名将，历任右中郎将、河内太守、太仆、太尉等职。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐荣（？－192年），辽东襄平人（今辽宁辽阳），东汉末年将领。曾经打败过曹操和孙坚，可谓是一位名动一时的猛人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊稠（？—195年），凉州金城（治今甘肃永靖西北）人。东汉末年将领，原为董卓部下，官至右将军，封万年侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭汜（？－197年），凉州张掖（今甘肃张掖西北）人，东汉末年将领。原为董卓部下，善于用兵，当时的侍中刘艾认为李傕、郭汜用兵作战的能力在孙坚之上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傕（？—198年），字稚然，北地郡泥阳县（今陕西省耀县）人。东汉末年将领，原为董卓部下，官至大司马、车骑将军、开府、领司隶校尉、假节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张济（?—196年），武威祖厉（今甘肃靖远东南）人，东汉末年将领。原为董卓部将，后任中郎将、镇东将军，封平阳侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董承（？－200年），东汉末年将领、外戚，汉献帝刘协妃嫔董贵人之父。初为董卓女婿牛辅部曲，后因护卫汉献帝从长安东归洛阳，受封列侯，后任车骑将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾（？－212年），字寿成。扶风茂陵（今陕西兴平）人，东汉末年军阀，伏波将军马援的后代，马超、马休、马铁之父。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞德（？－219年），字令明，南安郡狟道县（今甘肃天水市武山县四门镇）人，初随马腾进击反叛的羌、氐等外族，数有战功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李肃（？－192年），五原（治今内蒙古包头西北）人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张绣（？—207年），武威祖厉（今甘肃靖远）人。东汉末年将领，骠骑将军张济的从子，官至破羌将军，封宣威侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩（147年－223年），字文和，凉州姑臧（今甘肃武威市凉州区）人。东汉末年谋士，官至太尉，精通兵法，为《吴起兵法》校注 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐庶（生卒年不详），字元直。颍川郡长社县（今河南长葛东）人。东汉末年谋士，官至右中郎将、御史中丞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允（137年－192年），字子师，太原祁（今山西祁县）人。东汉末年大臣，出身官宦世家，历任从事中郎、河南尹、司徒兼尚书令等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李儒，字文优，东汉末年谋士，生卒年不详。198年李傕被击败后，李儒不知所踪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华歆（157年—232年），字子鱼，平原高唐人（今山东聊城高唐县）。东汉末年名士，与卢植、郑玄、管宁等为同门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朗（？－228年11月），字景兴，东海郯（今山东临沂市郯城西北）人。东汉末年名士，其孙女王元姬，嫁于晋王司马昭，生晋武帝司马炎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融（153年－208年），字文举。鲁国（今山东曲阜）人。东汉末年名士，家学渊源，为孔子的二十世孙、太山都尉孔宙之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍（？－202年），字本初，汝南汝阳（今河南省周口市商水县袁老乡袁老村）人。东汉末年军阀，司空袁逢之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高干（？－206年），字元才。东汉末年将领，蜀郡太守高躬之子、大将军袁绍的外甥。曾与荀谌游说韩馥，使袁绍领冀州牧。河北平定，袁绍以高干为并州牧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳于琼（？－200年），字仲简，颍川（治今河南禹州）人。西园八校尉之一的右校尉，与蹇硕、袁绍、鲍鸿、曹操、赵融、冯芳、夏牟同列。为袁绍大将，与张郃、高览等人齐名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜良（？－200年），琅琊临沂（今山东临沂）人，东汉末年河北军阀袁绍部将，以勇而闻名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文丑（？－200年），东汉末年冀州牧袁绍帐下的大将。与颜良一起作为袁绍军队的勇将而闻名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃（？－231年），字儁乂，河间鄚人。张郃戎马一生，以用兵巧变、善列营阵，长于利用地形著称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高览，一名高奂，袁绍部将。高览与颜良、文丑、张郃被后世并称为“河北四庭柱”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高柔（174年—263年），字文惠。陈留郡圉县（今河南杞县南）人，并州刺史高干从弟，以善于治法闻名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘宏（157年－189年），生于冀州河间国（今河北深州）。东汉第十一位皇帝,早年世袭解渎亭侯。在位的大部分时期，施行党锢及宦官政治,卖官鬻爵以用于自己享乐。谥号孝灵皇帝，葬于文陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉女指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘亭（158年—201年），虚拟人物，冀州河间国人，汉灵帝刘宏之弟，早年被贬庶人，黄巾之乱后，被征召启用，后辅佐汉献帝刘协稳固西北，受封秦王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于扶罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李堪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>韩遂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韩遂（？－215年），字文约。凉州金城郡人。东汉末年军阀，聚众十万，先后败皇甫嵩、张温、董卓、孙坚等名将，后受朝廷招安，拥兵割据一方长达三十余年。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于毒是今河南省鹤壁市淇县人，东汉末年黑山军首领的之一，曾与曹操、袁绍大战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张燕，本姓褚，生卒年不详，常山真定（今河北正定南）人，东汉末黑山军首领。张燕剽捍，敏捷过人，军中称为“飞燕”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">区星（生卒年不详），东汉末年荆州南部长沙地区变民首领。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒（？—199年），字伯圭，辽西令支（今河北迁安）人，东汉末年军阀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁术（？－199年），字公路，汝南汝阳（今河南商水西南）人，袁逢之嫡次子，袁基、袁绍之弟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严白虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严白虎（生卒年不详），东汉末年盘据吴郡一带的地方豪帅，原名“严虎”，别号“白虎”，吴郡乌程县人，山贼出身的豪帅，严舆之兄。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨秋，汉末凉州军阀之一，三国时期魏国将领。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成宜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成宜（？-211年），东汉末年凉州军阀之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管亥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青州黄巾军渠帅，率军侵略北海，围北海相孔融于都昌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张曼成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张曼成（？—184年），东汉末年黄巾之乱时南阳黄巾军首领，杀郡守褚贡，一度占据宛城数月，后为秦颉所杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波才，黄巾军高级将领，统领东方黄巾军部队。曾在黄巾起义初期取得一定战果，但在长社之战败北。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭脱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭脱，汉末年黄巾军渠帅。汉将皇甫嵩、朱隽乘胜进讨汝南、陈国黄巾，追波才于阳翟，击脱于西华，并破之。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眭固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眭固（？－199年），字白兔，东汉末期人物，蓟州人。原为黑山贼，与于毒、白绕齐名，与袁术合谋共攻东郡，反为曹操所败，后成为张杨部下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙范，辽西令支（今河北迁安）人。东汉末年武将，公孙瓒从弟，官至勃海太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严纲（163年-199年），东汉末年公孙瓒部下的冀州刺史。献帝初平二年，公孙瓒以严纲为冀州刺史。袁绍与瓒战于界桥，纲为袁绍部将麴义所斩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单经，生卒年不详，东汉末年公孙瓒的部下。献帝初平中，瓒以经为兖州刺史。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋是东汉末年军阀袁术麾下的重要将领，袁术称帝后的大将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥蕤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥蕤（？—197年），袁术麾下大将，为袁术开拓地盘立下了一定战功，后被曹操军击破身亡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪灵，字伏义，是东汉末年袁术帐下将领，勇猛非常，曾奉命率军攻打小沛的刘备，在吕布辕门射戟的调停下撤兵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超（？－195年），表字不详，东平寿张（今山东寿张）人，东汉末年的广陵太守，张邈之弟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周朝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周朝，东汉末年人物，中平四年（187年）与区星、郭石等人举兵叛乱，后被长沙太守孙坚所杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛礼(?-195年)，本为彭城相，后为陶谦所逼，屯兵秣陵，与笮融同奉刘繇为盟主。孙策攻刘繇，笮融、薛礼被击败，薛礼后被笮融所杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张英，东汉末扬州刺史刘繇属将。屯当利口以拒袁术，术遣孙贲、吴景击之，未能拔。后为孙策所破。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈瑀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈瑀，字公玮，生卒年不详，东汉末年下邳淮浦（今江苏涟水西）人。历任议郎、扬州刺史、吴郡太守、故安都尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖郎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖郎，生卒年不详，陵阳人。东汉末年在泾县一带活动的山贼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺（？－199年），东汉末年吕布帐下中郎将。史载高顺为人清白有威严，不好饮酒，所统率的部队精锐非常，号称“陷阵营”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文聘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文聘，生卒年不详，字仲业，南阳宛人，三国时期曹魏名将。本来是荆州刘表的大将。刘表死后，其子刘琮降曹操。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段煨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段煨（？—209年），字忠明。武威姑臧（今甘肃武威）人。原为董卓帐下将领，董卓令他屯兵华阴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛辅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛辅，董卓的女婿，曾任中郎将，征讨白波军，不能取胜。董卓被杀时，牛辅别屯于陕地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李堪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李堪（？-211），河东人，东汉末年凉州军阀之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎行，生卒年不详，字彦明，金城人（今甘肃省兰州市附近），是东汉末年三国时期人物，对于曹操消灭韩遂平定凉州起了重大作用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵弘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵弘（？-184年），东汉末年黄巾之乱时南阳黄巾军第二任首领，与朱儁秦颉徐璆等朝廷军队对垒数月有余，最终战死。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李大目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李大目，男，是《三国志·魏书·张燕传》注引《典略》中所描述的一个人物。三国时期黄巾将领，生卒年不详。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白绕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白绕，东汉末年黑山军首领之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于氐根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于氐根，指汉末一支农民起义军首领的称号。“于羝根”非其真名。由于他的胡子相互缠绕，所以他自称“ 于羝根”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于扶罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栾提於夫罗（150年－196年），又名于扶罗，号持至尸逐侯单于，中国东汉末年，南匈奴单于栾提羌渠之子、栾提呼厨泉之兄、刘豹之父、汉赵帝刘渊之祖父。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹丹（生卒年不详），东汉末期人物。公孙瓒部下，曾被公孙瓒封为渔阳太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙续，生卒年不详，辽西令支（今河北迁安）人。东汉末期人物，公孙瓒之子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周昕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周昕，字泰明。会稽（今浙江绍兴）人。袁绍部将、丹杨太守。周昂、周喁之兄。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹豹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹豹，东汉末年徐州牧陶谦的部将。其女曹氏为吕布次妻。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王楷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王楷，生卒年不详，东汉末年吕布部下谋士。与许汜一样，同是献计吕布与袁术再约婚，以解下邳之围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦颉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦颉，字初起，荆州南郡鄀县人。中平元年三月，荆州南阳郡黄巾军首领张曼成攻杀太守褚贡。江夏都尉秦颉临危受命，继任南阳郡太守的职位，负责讨伐黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭石，东汉末年人物，响应长沙区星的叛乱，联合周朝的零陵、桂阳郡举兵。被打败区星的长沙太守孙坚所杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄穰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄穰，东汉庐江（治今安徽庐江西南）人。光和三年，黄穰和"江夏蛮"联合举行武装起义，有众十余万，攻占四县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王睿</t>
+    <t>张纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张纯，东汉末年人物，曾为中山相。灵帝光和中，逃入辽西乌丸丘力居部中，自号弥天将军、安定王、弥天安定王，为三郡乌丸元帅，寇略青、徐、幽、冀四州，杀掠吏民，所至残破。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张举，东汉末年流寇。原渔阳郡的土豪。本为泰山太守，因不获张温重用而心生不愤。与张纯等联合发动叛乱，自称为天子。曾与孟益、公孙瓒等官军展开激战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘力居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘力居，东汉末年的辽西乌丸大人。拉拢中山太守张纯反叛东汉，寇略青、徐、幽、冀四州，杀略吏民。死时认为儿子楼班年幼，于是让从子蹋顿总摄三王部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹性，是东汉末年吕布的部将，史载他曾与身为自己上司的反叛者郝萌交战，并砍去郝萌一臂，受到吕布的嘉奖。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王睿（？-190年），字通曜，琅琊临沂（今山东临沂市）人。东汉大臣，东晋太保王祥伯父。累官荆州刺史，治于江陵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁胤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁胤，东汉末袁术部将。汝南汝阳（今河南商水西南）人。曾任丹阳太守为孙策击走。袁术死后，与黄猗等抬术棺柩，带领余众投奔皖城刘勋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹性，是东汉末年吕布的部将，史载他曾与身为自己上司的反叛者郝萌交战，并砍去郝萌一臂，受到吕布的嘉奖。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旋（？─209年？），字元机，东汉末年京兆人，或为西汉名臣金日磾后裔，有一子金祎。担任过黄门侍郎、汉阳太守，先后官拜议郎、中郎将等官职，最后成为荆州的武陵太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡瑁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵范，生卒年不详，他是东汉末年荆南桂阳郡太守，刘备攻荆南时投降。后因怀有异心逃走，不知所踪。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡瑁（生卒年不详），字德珪，襄阳蔡州（今湖北襄阳）人。东汉末年荆州名族，蔡讽之子，姑母（蔡讽之姐）是太尉张温之妻，长姐与二姐先后嫁给黄承彦与刘表成为继室。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦（132年－194年），字恭祖。丹阳郡（治今安徽宣城）人，性格刚直，有大志，曾随张温征韩遂、边章。后拜安东将军、徐州牧，封溧阳侯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表（142年－208年），字景升，山阳郡高平县（今山东微山）人。东汉末年宗室、名士，西汉鲁恭王刘余之后。官至镇南将军、荆州牧、假节，封成武侯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘繇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘繇（156年－197年），字正礼。东莱牟平（今山东牟平）人。东汉末年官员、汉室宗亲，齐悼惠王刘肥之后，太尉刘宠之侄。先后与袁术、孙策战，朝廷加其为扬州牧、振武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩玄，东汉末年至三国时期人，在汉末担任荆州的长沙太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宫（？－199年），字公台，东汉末年吕布帐下首席谋士，东郡东武阳（今山东莘县）人。性情刚直，足智多谋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张角（？－184年），钜鹿（今河北宁晋）人。 因得到道士于吉等人所传《太平清领书》（即《太平经》），而成为太平道的创始人，号称“天公将军”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宝（？－184年），钜鹿（治今河北平乡）人，东汉末黄巾起义首领之一，张角的弟弟，张梁的哥哥，号称“地公将军”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张梁（？－184年），钜鹿（治今河北巨鹿）人，东汉末年黄巾起义首领之一，张角、张宝之弟，号称“人公将军”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笮融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笮融，东汉末豪强。丹阳（治今安徽宣城）人。初聚众数百，往依徐州牧陶谦。谦使督广陵、彭城运漕，并任下邳相。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯越（？－214年），字异度，襄阳中庐（今湖北襄阳西南）人。刘表病逝后与刘琮一同投降曹操，后来官至光禄勋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张邈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张邈（？－195年），字孟卓，东平寿张（今山东东平县）人。东汉末年陈留太守，曾参与讨伐董卓。后曹操带兵讨伐陶谦时，张邈与陈宫叛曹迎吕布为兖州牧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许贡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许贡，东汉末官吏。先后任吴郡都尉、太守，欲送密信给曹操，要曹操注意孙策，却被孙策发现而被杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虞翻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虞翻（164年－233年），字仲翔，会稽余姚（今浙江余姚）人。日南太守虞歆之子。三国时期吴国官员。善使长矛，精通《易》学，又兼通医术，可谓文武全才。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘度，东汉末年零陵太守。刘备征讨荆南四郡时，零陵首当其冲，刘度望风而降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈登，字元龙，下邳淮浦（今江苏涟水西）人。东汉末年将领。为人爽朗，性格沈静，智谋过人。徐州牧陶谦提拔他为典农校尉，主管一州农业生产。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯良，字子柔，襄阳中庐人。蒯良为刘表定下安抚荆楚的政治方向，佐其成业，被刘表誉为“雍季之论”。与蒯越、蒯祺（诸葛亮姐夫）或为同族兄弟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiangLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daoLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gongLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiangLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daoLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪兵掌握熟练度等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀兵掌握熟练度等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵掌握熟练度等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵掌握熟练度等级，0-10,0为未获取相应兵种印玺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前锋营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后卫营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始血量值(武将值要比是士兵值大的多）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始智力值（hp,mp,atk,def士兵的数据值为1000士兵的总值，单个士兵需要除1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董越，东汉末年人。董卓手下东中郎将，曾被董卓派往渑池驻扎，抵御关东反董联军的进攻，董卓死后董越被董卓女婿牛辅所杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡珍，又名胡文才，凉州豪族。董卓手下将领，地位在李催、郭祀之上。 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱儁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉献帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将领ID字符串，四位：1汉阵营将领，2赵阵营将领，3魏阵营将领，4吴阵营将领，5蜀阵营将领，6待用，7备注将领，8系统NPC，9叛军将领，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘亭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘协（181年—234年），即汉献帝，东汉最后一任皇帝。刘协初封渤海王，后改封陈留王。中平六年（189年），董卓废汉少帝刘辩，立刘协为皇帝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪兵装备厚甲和一支长枪或长戟，攻击力高，防御力弱，对骑兵作战有利，可以直接攻城的兵种。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀兵装备一柄长刀和一面盾牌，攻击力弱，防御力高，对枪兵作战有利，可以直接攻城的兵种。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵装备大弓或强弩，可以远程攻击，但攻击力防御力弱，可以间接攻城。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵装备战马和马刀，高攻击力移动力，弱防御力，对刀兵弓兵作战有利，但是攻城力较弱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前锋营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后卫营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中军营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘汉女指引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁赵女指引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹魏女指引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙吴女指引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘汉中书令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁赵中书令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹魏中书令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙吴中书令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀汉中书令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官印小使（太守及以下官印使者）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官印大使（州牧及以上官印使者）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇甫嵩（？—195年），字义真。安定郡朝那县（今宁夏彭阳）人。东汉末期名将，历任车骑将军、太尉、光禄大夫、太常等职。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱儁（？—195年），字公伟。会稽郡上虞县（今浙江绍兴上虞区）人。东汉末年名将，历任右中郎将、河内太守、太仆、太尉等职。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐荣（？－192年），辽东襄平人（今辽宁辽阳），东汉末年将领。曾经打败过曹操和孙坚，可谓是一位名动一时的猛人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊稠（？—195年），凉州金城（治今甘肃永靖西北）人。东汉末年将领，原为董卓部下，官至右将军，封万年侯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭汜（？－197年），凉州张掖（今甘肃张掖西北）人，东汉末年将领。原为董卓部下，善于用兵，当时的侍中刘艾认为李傕、郭汜用兵作战的能力在孙坚之上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傕（？—198年），字稚然，北地郡泥阳县（今陕西省耀县）人。东汉末年将领，原为董卓部下，官至大司马、车骑将军、开府、领司隶校尉、假节。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张济（?—196年），武威祖厉（今甘肃靖远东南）人，东汉末年将领。原为董卓部将，后任中郎将、镇东将军，封平阳侯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董承（？－200年），东汉末年将领、外戚，汉献帝刘协妃嫔董贵人之父。初为董卓女婿牛辅部曲，后因护卫汉献帝从长安东归洛阳，受封列侯，后任车骑将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾（？－212年），字寿成。扶风茂陵（今陕西兴平）人，东汉末年军阀，伏波将军马援的后代，马超、马休、马铁之父。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞德（？－219年），字令明，南安郡狟道县（今甘肃天水市武山县四门镇）人，初随马腾进击反叛的羌、氐等外族，数有战功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李肃（？－192年），五原（治今内蒙古包头西北）人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张绣（？—207年），武威祖厉（今甘肃靖远）人。东汉末年将领，骠骑将军张济的从子，官至破羌将军，封宣威侯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾诩（147年－223年），字文和，凉州姑臧（今甘肃武威市凉州区）人。东汉末年谋士，官至太尉，精通兵法，为《吴起兵法》校注 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐庶（生卒年不详），字元直。颍川郡长社县（今河南长葛东）人。东汉末年谋士，官至右中郎将、御史中丞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王允（137年－192年），字子师，太原祁（今山西祁县）人。东汉末年大臣，出身官宦世家，历任从事中郎、河南尹、司徒兼尚书令等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李儒，字文优，东汉末年谋士，生卒年不详。198年李傕被击败后，李儒不知所踪。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华歆（157年—232年），字子鱼，平原高唐人（今山东聊城高唐县）。东汉末年名士，与卢植、郑玄、管宁等为同门。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王朗（？－228年11月），字景兴，东海郯（今山东临沂市郯城西北）人。东汉末年名士，其孙女王元姬，嫁于晋王司马昭，生晋武帝司马炎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔融（153年－208年），字文举。鲁国（今山东曲阜）人。东汉末年名士，家学渊源，为孔子的二十世孙、太山都尉孔宙之子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍（？－202年），字本初，汝南汝阳（今河南省周口市商水县袁老乡袁老村）人。东汉末年军阀，司空袁逢之子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高干（？－206年），字元才。东汉末年将领，蜀郡太守高躬之子、大将军袁绍的外甥。曾与荀谌游说韩馥，使袁绍领冀州牧。河北平定，袁绍以高干为并州牧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳于琼（？－200年），字仲简，颍川（治今河南禹州）人。西园八校尉之一的右校尉，与蹇硕、袁绍、鲍鸿、曹操、赵融、冯芳、夏牟同列。为袁绍大将，与张郃、高览等人齐名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜良（？－200年），琅琊临沂（今山东临沂）人，东汉末年河北军阀袁绍部将，以勇而闻名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文丑（？－200年），东汉末年冀州牧袁绍帐下的大将。与颜良一起作为袁绍军队的勇将而闻名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃（？－231年），字儁乂，河间鄚人。张郃戎马一生，以用兵巧变、善列营阵，长于利用地形著称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高览，一名高奂，袁绍部将。高览与颜良、文丑、张郃被后世并称为“河北四庭柱”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高柔（174年—263年），字文惠。陈留郡圉县（今河南杞县南）人，并州刺史高干从弟，以善于治法闻名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘宏（157年－189年），生于冀州河间国（今河北深州）。东汉第十一位皇帝,早年世袭解渎亭侯。在位的大部分时期，施行党锢及宦官政治,卖官鬻爵以用于自己享乐。谥号孝灵皇帝，葬于文陵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀汉女指引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘亭（158年—201年），虚拟人物，冀州河间国人，汉灵帝刘宏之弟，早年被贬庶人，黄巾之乱后，被征召启用，后辅佐汉献帝刘协稳固西北，受封秦王。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="N175" sqref="N175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,16 +2156,16 @@
         <v>25</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2352,7 +2352,7 @@
         <v>501</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2396,7 +2396,7 @@
         <v>502</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2440,7 +2440,7 @@
         <v>503</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C8" s="8">
         <v>5</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2484,7 +2484,7 @@
         <v>504</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -2528,7 +2528,7 @@
         <v>505</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -3100,7 +3100,7 @@
         <v>801</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C23" s="8">
         <v>8</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -3144,7 +3144,7 @@
         <v>802</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C24" s="8">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,7 +3188,7 @@
         <v>1001</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3268,7 +3268,7 @@
         <v>33</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3276,7 +3276,7 @@
         <v>1003</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3356,7 +3356,7 @@
         <v>33</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3400,7 +3400,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3444,7 +3444,7 @@
         <v>38</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3488,7 +3488,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3532,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3576,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3620,7 +3620,7 @@
         <v>36</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,7 +3664,7 @@
         <v>37</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3708,7 +3708,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3752,7 +3752,7 @@
         <v>33</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,7 +3796,7 @@
         <v>88</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,7 +3840,7 @@
         <v>89</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3884,7 +3884,7 @@
         <v>87</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3928,7 +3928,7 @@
         <v>75</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,7 +3972,7 @@
         <v>75</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,7 +4016,7 @@
         <v>72</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,7 +4060,7 @@
         <v>74</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4104,7 +4104,7 @@
         <v>49</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4148,7 +4148,7 @@
         <v>47</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4192,7 +4192,7 @@
         <v>47</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4236,7 +4236,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,7 +4280,7 @@
         <v>42</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4324,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -4368,7 +4368,7 @@
         <v>29</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4412,7 +4412,7 @@
         <v>27</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7676,7 +7676,7 @@
         <v>6003</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
       <c r="C127" s="8">
         <v>1</v>
@@ -7712,7 +7712,7 @@
         <v>42</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7720,7 +7720,7 @@
         <v>6004</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C128" s="8">
         <v>1</v>
@@ -7756,7 +7756,7 @@
         <v>40</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7764,7 +7764,7 @@
         <v>6005</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="8">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>32</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7808,7 +7808,7 @@
         <v>6006</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C130" s="8">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>46</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -7852,7 +7852,7 @@
         <v>6007</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="C131" s="8">
         <v>1</v>
@@ -7888,7 +7888,7 @@
         <v>38</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7896,7 +7896,7 @@
         <v>6008</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C132" s="8">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>49</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7940,7 +7940,7 @@
         <v>6009</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C133" s="8">
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>38</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7984,7 +7984,7 @@
         <v>6010</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C134" s="8">
         <v>1</v>
@@ -8020,7 +8020,7 @@
         <v>31</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8028,7 +8028,7 @@
         <v>7001</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C135" s="9">
         <v>2</v>
@@ -8064,7 +8064,7 @@
         <v>27</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -8072,7 +8072,7 @@
         <v>7002</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C136" s="8">
         <v>2</v>
@@ -8108,7 +8108,7 @@
         <v>29</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -8116,7 +8116,7 @@
         <v>7003</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C137" s="8">
         <v>2</v>
@@ -8152,7 +8152,7 @@
         <v>31</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8160,7 +8160,7 @@
         <v>7004</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C138" s="8">
         <v>2</v>
@@ -8196,7 +8196,7 @@
         <v>28</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8204,7 +8204,7 @@
         <v>7005</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C139" s="8">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>29</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8248,7 +8248,7 @@
         <v>7006</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C140" s="8">
         <v>2</v>
@@ -8284,7 +8284,7 @@
         <v>31</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8292,7 +8292,7 @@
         <v>7007</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C141" s="8">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>28</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8336,7 +8336,7 @@
         <v>7008</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C142" s="8">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>38</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8380,7 +8380,7 @@
         <v>7009</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C143" s="8">
         <v>2</v>
@@ -8416,7 +8416,7 @@
         <v>27</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8424,7 +8424,7 @@
         <v>7010</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C144" s="8">
         <v>2</v>
@@ -8460,7 +8460,7 @@
         <v>35</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8468,7 +8468,7 @@
         <v>7011</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C145" s="8">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>27</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8512,7 +8512,7 @@
         <v>7012</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C146" s="8">
         <v>2</v>
@@ -8548,7 +8548,7 @@
         <v>32</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8556,7 +8556,7 @@
         <v>7013</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C147" s="8">
         <v>2</v>
@@ -8592,7 +8592,7 @@
         <v>29</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -8600,7 +8600,7 @@
         <v>7014</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C148" s="8">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>31</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8644,7 +8644,7 @@
         <v>7015</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C149" s="8">
         <v>2</v>
@@ -8680,7 +8680,7 @@
         <v>27</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8688,7 +8688,7 @@
         <v>7016</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C150" s="8">
         <v>2</v>
@@ -8724,7 +8724,7 @@
         <v>32</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8732,7 +8732,7 @@
         <v>7017</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>259</v>
+        <v>420</v>
       </c>
       <c r="C151" s="8">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>29</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8776,7 +8776,7 @@
         <v>7018</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C152" s="8">
         <v>2</v>
@@ -8812,7 +8812,7 @@
         <v>35</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8820,7 +8820,7 @@
         <v>7019</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C153" s="8">
         <v>2</v>
@@ -8856,7 +8856,7 @@
         <v>33</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8864,7 +8864,7 @@
         <v>7020</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C154" s="8">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>32</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8908,7 +8908,7 @@
         <v>7021</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C155" s="8">
         <v>2</v>
@@ -8944,7 +8944,7 @@
         <v>33</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8952,7 +8952,7 @@
         <v>7022</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C156" s="8">
         <v>2</v>
@@ -8988,7 +8988,7 @@
         <v>35</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8996,7 +8996,7 @@
         <v>7023</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C157" s="8">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>36</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -9040,7 +9040,7 @@
         <v>8001</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C158" s="9">
         <v>2</v>
@@ -9076,7 +9076,7 @@
         <v>35</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -9084,7 +9084,7 @@
         <v>8002</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C159" s="8">
         <v>2</v>
@@ -9120,7 +9120,7 @@
         <v>28</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9128,7 +9128,7 @@
         <v>8003</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="C160" s="8">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>34</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9172,7 +9172,7 @@
         <v>8004</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C161" s="8">
         <v>2</v>
@@ -9208,7 +9208,7 @@
         <v>33</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9216,7 +9216,7 @@
         <v>8005</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C162" s="8">
         <v>2</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9260,7 +9260,7 @@
         <v>8006</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C163" s="8">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>33</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9304,7 +9304,7 @@
         <v>8007</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C164" s="8">
         <v>2</v>
@@ -9340,7 +9340,7 @@
         <v>28</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9348,7 +9348,7 @@
         <v>8008</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C165" s="8">
         <v>2</v>
@@ -9384,7 +9384,7 @@
         <v>35</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9392,7 +9392,7 @@
         <v>8009</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="C166" s="8">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>26</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9436,7 +9436,7 @@
         <v>8010</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>291</v>
+        <v>416</v>
       </c>
       <c r="C167" s="8">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>33</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9480,7 +9480,7 @@
         <v>8011</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C168" s="8">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>25</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9524,7 +9524,7 @@
         <v>8012</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C169" s="8">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>26</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -9568,7 +9568,7 @@
         <v>8013</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C170" s="8">
         <v>2</v>
@@ -9604,7 +9604,7 @@
         <v>34</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -9612,7 +9612,7 @@
         <v>8014</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C171" s="8">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>25</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9656,7 +9656,7 @@
         <v>8015</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C172" s="8">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>27</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9700,7 +9700,7 @@
         <v>8016</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C173" s="8">
         <v>2</v>
@@ -9736,7 +9736,7 @@
         <v>27</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9744,7 +9744,7 @@
         <v>8017</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="C174" s="8">
         <v>2</v>
@@ -9780,7 +9780,7 @@
         <v>30</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9788,7 +9788,7 @@
         <v>8018</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C175" s="8">
         <v>2</v>
@@ -9824,7 +9824,7 @@
         <v>29</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9832,7 +9832,7 @@
         <v>8019</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C176" s="8">
         <v>2</v>
@@ -9868,7 +9868,7 @@
         <v>32</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9876,7 +9876,7 @@
         <v>8020</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C177" s="8">
         <v>2</v>
@@ -9912,7 +9912,7 @@
         <v>27</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9920,7 +9920,7 @@
         <v>8021</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C178" s="8">
         <v>2</v>
@@ -9956,7 +9956,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9964,7 +9964,7 @@
         <v>8022</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C179" s="8">
         <v>2</v>
@@ -10000,7 +10000,7 @@
         <v>32</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10008,7 +10008,7 @@
         <v>8023</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C180" s="8">
         <v>3</v>
@@ -10044,7 +10044,7 @@
         <v>32</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10052,7 +10052,7 @@
         <v>9001</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C181" s="9">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10096,7 +10096,7 @@
         <v>9002</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C182" s="8">
         <v>1</v>
@@ -10132,7 +10132,7 @@
         <v>74</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10140,7 +10140,7 @@
         <v>9003</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C183" s="8">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>76</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10184,7 +10184,7 @@
         <v>9004</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C184" s="8">
         <v>1</v>
@@ -10220,7 +10220,7 @@
         <v>76</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10228,7 +10228,7 @@
         <v>9005</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C185" s="8">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>78</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10272,7 +10272,7 @@
         <v>9051</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C186" s="9">
         <v>3</v>
@@ -10308,7 +10308,7 @@
         <v>76</v>
       </c>
       <c r="N186" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10316,7 +10316,7 @@
         <v>9052</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C187" s="8">
         <v>3</v>
@@ -10352,7 +10352,7 @@
         <v>78</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10360,7 +10360,7 @@
         <v>9053</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C188" s="8">
         <v>3</v>
@@ -10396,7 +10396,7 @@
         <v>78</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10404,7 +10404,7 @@
         <v>9054</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C189" s="8">
         <v>3</v>
@@ -10440,7 +10440,7 @@
         <v>75</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10448,7 +10448,7 @@
         <v>9055</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C190" s="8">
         <v>3</v>
@@ -10484,7 +10484,7 @@
         <v>72</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10492,7 +10492,7 @@
         <v>9056</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C191" s="8">
         <v>3</v>
@@ -10528,7 +10528,7 @@
         <v>70</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10536,7 +10536,7 @@
         <v>9057</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C192" s="8">
         <v>3</v>
@@ -10572,7 +10572,7 @@
         <v>76</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -10580,7 +10580,7 @@
         <v>9058</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C193" s="8">
         <v>3</v>
@@ -10616,7 +10616,7 @@
         <v>72</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:14" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10624,7 +10624,7 @@
         <v>9059</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C194" s="8">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>74</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10668,7 +10668,7 @@
         <v>9060</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C195" s="8">
         <v>1</v>
@@ -10704,7 +10704,7 @@
         <v>75</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -10733,7 +10733,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -10765,7 +10765,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -10773,7 +10773,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -10802,34 +10802,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/generalConfig.xlsx
+++ b/tbl打包工具/excel/generalConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
@@ -735,10 +735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄忠（？－220年），字汉升，南阳（今河南南阳）人。东汉末年名将。本为刘表部下中郎将，后归刘备，并助刘备攻益州刘璋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏延</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,6 +1712,10 @@
   </si>
   <si>
     <t>王睿（？-190年），字通曜，琅琊临沂（今山东临沂市）人。东汉大臣，东晋太保王祥伯父。累官荆州刺史，治于江陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏延（？－234年），字文长，义阳平氏（今河南桐柏县）人。三国时期蜀汉将领，深受刘备器重。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1820,12 +1820,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1867,7 +1870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1902,7 +1905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="N175" sqref="N175"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,16 +2159,16 @@
         <v>25</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -2212,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2256,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2300,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2344,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2352,7 +2355,7 @@
         <v>501</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -2388,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2396,7 +2399,7 @@
         <v>502</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -2432,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2440,7 +2443,7 @@
         <v>503</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8" s="8">
         <v>5</v>
@@ -2476,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2484,7 +2487,7 @@
         <v>504</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -2520,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -2528,7 +2531,7 @@
         <v>505</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -2564,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2652,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -2696,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2828,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -2872,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2916,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2960,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3004,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -3092,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -3100,7 +3103,7 @@
         <v>801</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23" s="8">
         <v>8</v>
@@ -3136,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -3144,7 +3147,7 @@
         <v>802</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24" s="8">
         <v>8</v>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,7 +3191,7 @@
         <v>1001</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -3224,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3268,7 +3271,7 @@
         <v>33</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3276,7 +3279,7 @@
         <v>1003</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -3312,7 +3315,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3356,7 +3359,7 @@
         <v>33</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3400,7 +3403,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3444,7 +3447,7 @@
         <v>38</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3488,7 +3491,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3532,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3576,7 +3579,7 @@
         <v>37</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3620,7 +3623,7 @@
         <v>36</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,7 +3667,7 @@
         <v>37</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3708,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3752,7 +3755,7 @@
         <v>33</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,7 +3799,7 @@
         <v>88</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,7 +3843,7 @@
         <v>89</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3884,7 +3887,7 @@
         <v>87</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3928,7 +3931,7 @@
         <v>75</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,7 +3975,7 @@
         <v>75</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,7 +4019,7 @@
         <v>72</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,7 +4063,7 @@
         <v>74</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4104,7 +4107,7 @@
         <v>49</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4148,7 +4151,7 @@
         <v>47</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4192,7 +4195,7 @@
         <v>47</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4236,7 +4239,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,7 +4283,7 @@
         <v>42</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4324,7 +4327,7 @@
         <v>40</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -4368,7 +4371,7 @@
         <v>29</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4412,7 +4415,7 @@
         <v>27</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6920,15 +6923,15 @@
         <v>35</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="8">
         <v>5006</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110" s="8">
         <v>2</v>
@@ -6964,7 +6967,7 @@
         <v>32</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>182</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -6972,7 +6975,7 @@
         <v>5007</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" s="8">
         <v>2</v>
@@ -7008,7 +7011,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -7016,7 +7019,7 @@
         <v>5008</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="8">
         <v>2</v>
@@ -7052,7 +7055,7 @@
         <v>28</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -7060,7 +7063,7 @@
         <v>5009</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="9">
         <v>2</v>
@@ -7096,7 +7099,7 @@
         <v>33</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7104,7 +7107,7 @@
         <v>5010</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="8">
         <v>2</v>
@@ -7140,7 +7143,7 @@
         <v>33</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7148,7 +7151,7 @@
         <v>5011</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" s="8">
         <v>2</v>
@@ -7184,7 +7187,7 @@
         <v>33</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7192,7 +7195,7 @@
         <v>5012</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" s="8">
         <v>2</v>
@@ -7228,7 +7231,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7236,7 +7239,7 @@
         <v>5013</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" s="8">
         <v>2</v>
@@ -7272,7 +7275,7 @@
         <v>30</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -7280,7 +7283,7 @@
         <v>5014</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="9">
         <v>1</v>
@@ -7316,7 +7319,7 @@
         <v>85</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7324,7 +7327,7 @@
         <v>5015</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="8">
         <v>1</v>
@@ -7360,7 +7363,7 @@
         <v>84</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7404,7 +7407,7 @@
         <v>73</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7412,7 +7415,7 @@
         <v>5017</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" s="8">
         <v>3</v>
@@ -7448,7 +7451,7 @@
         <v>71</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7456,7 +7459,7 @@
         <v>5018</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="8">
         <v>3</v>
@@ -7492,7 +7495,7 @@
         <v>71</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7500,7 +7503,7 @@
         <v>5019</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="8">
         <v>3</v>
@@ -7536,7 +7539,7 @@
         <v>80</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7544,7 +7547,7 @@
         <v>5020</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C124" s="8">
         <v>3</v>
@@ -7580,7 +7583,7 @@
         <v>77</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -7588,7 +7591,7 @@
         <v>6001</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="9">
         <v>1</v>
@@ -7624,7 +7627,7 @@
         <v>48</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7632,7 +7635,7 @@
         <v>6002</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" s="8">
         <v>1</v>
@@ -7668,7 +7671,7 @@
         <v>53</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7676,7 +7679,7 @@
         <v>6003</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C127" s="8">
         <v>1</v>
@@ -7712,7 +7715,7 @@
         <v>42</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7720,7 +7723,7 @@
         <v>6004</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" s="8">
         <v>1</v>
@@ -7756,7 +7759,7 @@
         <v>40</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7764,7 +7767,7 @@
         <v>6005</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C129" s="8">
         <v>1</v>
@@ -7800,7 +7803,7 @@
         <v>32</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7808,7 +7811,7 @@
         <v>6006</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C130" s="8">
         <v>1</v>
@@ -7844,7 +7847,7 @@
         <v>46</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -7852,7 +7855,7 @@
         <v>6007</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C131" s="8">
         <v>1</v>
@@ -7888,7 +7891,7 @@
         <v>38</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7896,7 +7899,7 @@
         <v>6008</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C132" s="8">
         <v>1</v>
@@ -7932,7 +7935,7 @@
         <v>49</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7940,7 +7943,7 @@
         <v>6009</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" s="8">
         <v>1</v>
@@ -7976,7 +7979,7 @@
         <v>38</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7984,7 +7987,7 @@
         <v>6010</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C134" s="8">
         <v>1</v>
@@ -8020,7 +8023,7 @@
         <v>31</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8028,7 +8031,7 @@
         <v>7001</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135" s="9">
         <v>2</v>
@@ -8064,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -8072,7 +8075,7 @@
         <v>7002</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C136" s="8">
         <v>2</v>
@@ -8108,7 +8111,7 @@
         <v>29</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -8116,7 +8119,7 @@
         <v>7003</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C137" s="8">
         <v>2</v>
@@ -8152,7 +8155,7 @@
         <v>31</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8160,7 +8163,7 @@
         <v>7004</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" s="8">
         <v>2</v>
@@ -8196,7 +8199,7 @@
         <v>28</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8204,7 +8207,7 @@
         <v>7005</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C139" s="8">
         <v>2</v>
@@ -8240,7 +8243,7 @@
         <v>29</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8248,7 +8251,7 @@
         <v>7006</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C140" s="8">
         <v>2</v>
@@ -8284,7 +8287,7 @@
         <v>31</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8292,7 +8295,7 @@
         <v>7007</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C141" s="8">
         <v>2</v>
@@ -8328,7 +8331,7 @@
         <v>28</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8336,7 +8339,7 @@
         <v>7008</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="8">
         <v>2</v>
@@ -8372,7 +8375,7 @@
         <v>38</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8380,7 +8383,7 @@
         <v>7009</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C143" s="8">
         <v>2</v>
@@ -8416,7 +8419,7 @@
         <v>27</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8424,7 +8427,7 @@
         <v>7010</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C144" s="8">
         <v>2</v>
@@ -8460,7 +8463,7 @@
         <v>35</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8468,7 +8471,7 @@
         <v>7011</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C145" s="8">
         <v>2</v>
@@ -8504,7 +8507,7 @@
         <v>27</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8512,7 +8515,7 @@
         <v>7012</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C146" s="8">
         <v>2</v>
@@ -8548,7 +8551,7 @@
         <v>32</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8556,7 +8559,7 @@
         <v>7013</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C147" s="8">
         <v>2</v>
@@ -8592,7 +8595,7 @@
         <v>29</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -8600,7 +8603,7 @@
         <v>7014</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C148" s="8">
         <v>2</v>
@@ -8636,7 +8639,7 @@
         <v>31</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8644,7 +8647,7 @@
         <v>7015</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C149" s="8">
         <v>2</v>
@@ -8680,7 +8683,7 @@
         <v>27</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8688,7 +8691,7 @@
         <v>7016</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C150" s="8">
         <v>2</v>
@@ -8724,7 +8727,7 @@
         <v>32</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8732,7 +8735,7 @@
         <v>7017</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C151" s="8">
         <v>2</v>
@@ -8768,7 +8771,7 @@
         <v>29</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8776,7 +8779,7 @@
         <v>7018</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C152" s="8">
         <v>2</v>
@@ -8812,7 +8815,7 @@
         <v>35</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8820,7 +8823,7 @@
         <v>7019</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C153" s="8">
         <v>2</v>
@@ -8856,7 +8859,7 @@
         <v>33</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8864,7 +8867,7 @@
         <v>7020</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C154" s="8">
         <v>2</v>
@@ -8900,7 +8903,7 @@
         <v>32</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8908,7 +8911,7 @@
         <v>7021</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C155" s="8">
         <v>2</v>
@@ -8944,7 +8947,7 @@
         <v>33</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8952,7 +8955,7 @@
         <v>7022</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C156" s="8">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>35</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -8996,7 +8999,7 @@
         <v>7023</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C157" s="8">
         <v>2</v>
@@ -9032,7 +9035,7 @@
         <v>36</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -9040,7 +9043,7 @@
         <v>8001</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C158" s="9">
         <v>2</v>
@@ -9076,7 +9079,7 @@
         <v>35</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -9084,7 +9087,7 @@
         <v>8002</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C159" s="8">
         <v>2</v>
@@ -9120,7 +9123,7 @@
         <v>28</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9128,7 +9131,7 @@
         <v>8003</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C160" s="8">
         <v>2</v>
@@ -9164,7 +9167,7 @@
         <v>34</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9172,7 +9175,7 @@
         <v>8004</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C161" s="8">
         <v>2</v>
@@ -9208,7 +9211,7 @@
         <v>33</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9216,7 +9219,7 @@
         <v>8005</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C162" s="8">
         <v>2</v>
@@ -9252,7 +9255,7 @@
         <v>36</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9260,7 +9263,7 @@
         <v>8006</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C163" s="8">
         <v>2</v>
@@ -9296,7 +9299,7 @@
         <v>33</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9304,7 +9307,7 @@
         <v>8007</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C164" s="8">
         <v>2</v>
@@ -9340,7 +9343,7 @@
         <v>28</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9348,7 +9351,7 @@
         <v>8008</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C165" s="8">
         <v>2</v>
@@ -9384,7 +9387,7 @@
         <v>35</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9392,7 +9395,7 @@
         <v>8009</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C166" s="8">
         <v>2</v>
@@ -9428,7 +9431,7 @@
         <v>26</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9436,7 +9439,7 @@
         <v>8010</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C167" s="8">
         <v>2</v>
@@ -9472,7 +9475,7 @@
         <v>33</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9480,7 +9483,7 @@
         <v>8011</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C168" s="8">
         <v>2</v>
@@ -9516,7 +9519,7 @@
         <v>25</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9524,7 +9527,7 @@
         <v>8012</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C169" s="8">
         <v>2</v>
@@ -9560,7 +9563,7 @@
         <v>26</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -9568,7 +9571,7 @@
         <v>8013</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C170" s="8">
         <v>2</v>
@@ -9604,7 +9607,7 @@
         <v>34</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -9612,7 +9615,7 @@
         <v>8014</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C171" s="8">
         <v>2</v>
@@ -9648,7 +9651,7 @@
         <v>25</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9656,7 +9659,7 @@
         <v>8015</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C172" s="8">
         <v>2</v>
@@ -9692,7 +9695,7 @@
         <v>27</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9700,7 +9703,7 @@
         <v>8016</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C173" s="8">
         <v>2</v>
@@ -9736,7 +9739,7 @@
         <v>27</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9744,7 +9747,7 @@
         <v>8017</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C174" s="8">
         <v>2</v>
@@ -9780,7 +9783,7 @@
         <v>30</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9788,7 +9791,7 @@
         <v>8018</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" s="8">
         <v>2</v>
@@ -9824,7 +9827,7 @@
         <v>29</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9832,7 +9835,7 @@
         <v>8019</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" s="8">
         <v>2</v>
@@ -9868,7 +9871,7 @@
         <v>32</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9876,7 +9879,7 @@
         <v>8020</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C177" s="8">
         <v>2</v>
@@ -9912,7 +9915,7 @@
         <v>27</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -9920,7 +9923,7 @@
         <v>8021</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C178" s="8">
         <v>2</v>
@@ -9956,7 +9959,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9964,7 +9967,7 @@
         <v>8022</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C179" s="8">
         <v>2</v>
@@ -10000,7 +10003,7 @@
         <v>32</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10008,7 +10011,7 @@
         <v>8023</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C180" s="8">
         <v>3</v>
@@ -10044,7 +10047,7 @@
         <v>32</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10052,7 +10055,7 @@
         <v>9001</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C181" s="9">
         <v>1</v>
@@ -10088,7 +10091,7 @@
         <v>77</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10096,7 +10099,7 @@
         <v>9002</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C182" s="8">
         <v>1</v>
@@ -10132,7 +10135,7 @@
         <v>74</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10140,7 +10143,7 @@
         <v>9003</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C183" s="8">
         <v>1</v>
@@ -10176,7 +10179,7 @@
         <v>76</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10184,7 +10187,7 @@
         <v>9004</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C184" s="8">
         <v>1</v>
@@ -10220,7 +10223,7 @@
         <v>76</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10228,7 +10231,7 @@
         <v>9005</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="8">
         <v>1</v>
@@ -10264,7 +10267,7 @@
         <v>78</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="186" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10272,7 +10275,7 @@
         <v>9051</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C186" s="9">
         <v>3</v>
@@ -10308,7 +10311,7 @@
         <v>76</v>
       </c>
       <c r="N186" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10316,7 +10319,7 @@
         <v>9052</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C187" s="8">
         <v>3</v>
@@ -10352,7 +10355,7 @@
         <v>78</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10360,7 +10363,7 @@
         <v>9053</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C188" s="8">
         <v>3</v>
@@ -10396,7 +10399,7 @@
         <v>78</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10404,7 +10407,7 @@
         <v>9054</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C189" s="8">
         <v>3</v>
@@ -10440,7 +10443,7 @@
         <v>75</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10448,7 +10451,7 @@
         <v>9055</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C190" s="8">
         <v>3</v>
@@ -10484,7 +10487,7 @@
         <v>72</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10492,7 +10495,7 @@
         <v>9056</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C191" s="8">
         <v>3</v>
@@ -10528,7 +10531,7 @@
         <v>70</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10536,7 +10539,7 @@
         <v>9057</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C192" s="8">
         <v>3</v>
@@ -10572,7 +10575,7 @@
         <v>76</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -10580,7 +10583,7 @@
         <v>9058</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C193" s="8">
         <v>3</v>
@@ -10616,7 +10619,7 @@
         <v>72</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="194" spans="1:14" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -10624,7 +10627,7 @@
         <v>9059</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C194" s="8">
         <v>1</v>
@@ -10660,7 +10663,7 @@
         <v>74</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -10668,7 +10671,7 @@
         <v>9060</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C195" s="8">
         <v>1</v>
@@ -10704,13 +10707,13 @@
         <v>75</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10733,7 +10736,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -10765,7 +10768,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -10773,7 +10776,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -10802,34 +10805,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
